--- a/compra_spot_rev09.xlsx
+++ b/compra_spot_rev09.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrncombr-my.sharepoint.com/personal/marcos_silva_trd_mrn_com_br/Documents/Documentos/GitHub/rhspot_app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrncombr-my.sharepoint.com/personal/marcos_silva_trd_mrn_com_br/Documents/Documentos/GitHub/rhspot_app/backend/services/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{D79CEF26-A439-490F-A380-E89A6E2ED0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44C889F1-32F6-4B4F-AC70-518B1FB79588}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{D79CEF26-A439-490F-A380-E89A6E2ED0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4897312-6150-4F89-B242-3AA4A03BB00A}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="480" windowWidth="27060" windowHeight="19290" tabRatio="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33690" yWindow="180" windowWidth="25920" windowHeight="18915" tabRatio="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nova Contratação" sheetId="16" r:id="rId1"/>
-    <sheet name="HIERARQUIA" sheetId="18" state="hidden" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="22" state="hidden" r:id="rId3"/>
+    <sheet name="Mapa Comercial" sheetId="23" r:id="rId2"/>
+    <sheet name="HIERARQUIA" sheetId="18" state="hidden" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="22" state="hidden" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Nova Contratação'!$B$2:$Z$72</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Nova Contratação'!$B$2:$Z$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="150">
   <si>
     <t>Não</t>
   </si>
@@ -132,9 +133,6 @@
   </si>
   <si>
     <t>VARIAÇÃO SOBRE O ORÇADO (%):</t>
-  </si>
-  <si>
-    <t>DIFERENÇA SOBRE A MELHOR PROPOSTA EQUALIZADA (%):</t>
   </si>
   <si>
     <t>FRETE:</t>
@@ -198,19 +196,6 @@
     <t>MAPA COMERCIAL</t>
   </si>
   <si>
-    <t xml:space="preserve">
-DIRECIONADA:
-EXCLUSIVA:
-MENOS 3 PROPOSTAS:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-IMPORTAÇÃO:
-MOEDA:
-TAXA DE CÂMBIO:
-DATA CÂMBIO:</t>
-  </si>
-  <si>
     <t>APROVADOR DESQUALIFICAÇÃO:</t>
   </si>
   <si>
@@ -521,13 +506,34 @@
     <t>PAMELA MEDI - GDP</t>
   </si>
   <si>
-    <t>Avaliação comercial efetuada considerando todos os impostos inclusos e o mesmo escopo.</t>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>DIRECIONADA:</t>
+  </si>
+  <si>
+    <t>IMPORTAÇÃO:</t>
+  </si>
+  <si>
+    <t>MENOS 3 PROPOSTAS:</t>
+  </si>
+  <si>
+    <t>EXCLUSIVA:</t>
+  </si>
+  <si>
+    <t>DATA CÂMBIO:</t>
+  </si>
+  <si>
+    <t>TAXA CÂMBIO:</t>
+  </si>
+  <si>
+    <t>DIF. SOBRE MELHOR PROPOSTA EQUALIZADA (%):</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -536,7 +542,7 @@
     <numFmt numFmtId="166" formatCode="0\ &quot;DIAS&quot;"/>
     <numFmt numFmtId="167" formatCode="0\ &quot;DFS&quot;"/>
   </numFmts>
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -763,12 +769,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1" tint="0.14999847407452621"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -843,14 +843,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <vertAlign val="superscript"/>
-      <sz val="20"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -885,6 +877,13 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="20"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1573,13 +1572,13 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="413">
+  <cellXfs count="429">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1686,23 +1685,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1721,14 +1720,14 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1739,34 +1738,34 @@
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="51" fillId="6" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="49" fillId="6" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="28" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1811,7 +1810,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1850,7 +1849,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1860,7 +1859,7 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1872,7 +1871,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1882,7 +1881,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1913,11 +1912,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1958,10 +1957,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1977,7 +1976,7 @@
     <xf numFmtId="10" fontId="28" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2040,9 +2039,6 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
@@ -2052,7 +2048,7 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2186,7 +2182,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2198,9 +2194,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2290,15 +2285,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2462,7 +2457,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2488,10 +2483,10 @@
     <xf numFmtId="44" fontId="17" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="38" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2511,7 +2506,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2538,7 +2533,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2546,24 +2541,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="52" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="52" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="52" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2871,30 +2866,27 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2910,15 +2902,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2962,19 +2954,19 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2990,6 +2982,30 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3013,6 +3029,51 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3209,7 +3270,9 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{679735A6-8AAC-4A06-AC40-EA166931F45C}"/>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -3496,15 +3559,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3563,15 +3626,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3630,15 +3693,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3697,15 +3760,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3764,15 +3827,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>8164</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>129540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3831,15 +3894,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>8164</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>129540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3898,15 +3961,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>129540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3965,15 +4028,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>129540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4027,69 +4090,20 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>730653</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>11479</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>730653</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Conector reto 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3745035" y="13436126"/>
-          <a:ext cx="0" cy="1254786"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="B9B9B9"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4148,15 +4162,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4215,15 +4229,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4282,15 +4296,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4349,15 +4363,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4416,15 +4430,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4483,15 +4497,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>10886</xdr:colOff>
+          <xdr:colOff>20411</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4550,15 +4564,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>10886</xdr:colOff>
+          <xdr:colOff>20411</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4617,15 +4631,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4684,15 +4698,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4751,15 +4765,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>21</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>21</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4818,15 +4832,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>21</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>21</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4946,15 +4960,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5013,15 +5027,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5080,15 +5094,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5147,15 +5161,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5214,15 +5228,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>129540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5281,15 +5295,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>129540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5348,15 +5362,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>129540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5415,15 +5429,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>129540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5477,397 +5491,20 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>87446</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>223051</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1497724" cy="342786"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CaixaDeTexto 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2325821" y="13862851"/>
-          <a:ext cx="1497724" cy="342786"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1200" b="1">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>SIM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1600" b="1"/>
-            <a:t>           </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1200" b="1">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>NÃO</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>730653</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>11479</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>730653</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Conector reto 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2969028" y="14308504"/>
-          <a:ext cx="0" cy="1679489"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="B9B9B9"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>155865</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>341154</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1387929</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>624431</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Text Box 291">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6673686" y="14560618"/>
-          <a:ext cx="1232064" cy="283277"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="rnd" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>BRL</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152307</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>779587</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1384371</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>1062864</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Text Box 291">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6670128" y="14999051"/>
-          <a:ext cx="1232064" cy="283277"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="rnd" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>NA</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>155028</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>1193025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1387092</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>1476302</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Text Box 291">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6672849" y="15412489"/>
-          <a:ext cx="1232064" cy="283277"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="rnd" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>NA</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>137776</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>349010</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1369840</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>195258</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Text Box 291">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6655597" y="14133046"/>
-          <a:ext cx="1232064" cy="281676"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="rnd" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400"/>
-            <a:t>Não</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5926,15 +5563,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5993,15 +5630,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6060,15 +5697,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6127,15 +5764,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6194,15 +5831,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6261,15 +5898,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>10886</xdr:colOff>
+          <xdr:colOff>20411</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6328,15 +5965,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>10886</xdr:colOff>
+          <xdr:colOff>20411</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6395,15 +6032,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6462,15 +6099,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6529,15 +6166,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>21</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>21</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6596,15 +6233,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>21</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>21</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6658,384 +6295,18 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>216477</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>261504</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>568902</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>585354</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Retângulo 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2454852" y="15139554"/>
-          <a:ext cx="352425" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="2000" b="1"/>
-            <a:t>X</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>928998</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>669347</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1281423</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>993197</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Retângulo 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3171703" y="15398461"/>
-          <a:ext cx="352425" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="2000" b="1">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>X</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>213013</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>673676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>565438</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>997526</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Retângulo 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2451388" y="15551726"/>
-          <a:ext cx="352425" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="2000" b="1"/>
-            <a:t>X</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>925535</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>1089313</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1277960</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>1413163</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Retângulo 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3167992" y="15997299"/>
-          <a:ext cx="352425" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="2000" b="1">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>X</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>213880</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>1103167</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>566305</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>1427017</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Retângulo 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2456585" y="15832281"/>
-          <a:ext cx="352425" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="2000" b="1"/>
-            <a:t>X</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>928051</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>252189</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1280476</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>576039</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Retângulo 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3160473" y="14986173"/>
-          <a:ext cx="352425" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="2000" b="1"/>
-            <a:t>X</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -7096,13 +6367,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -7163,13 +6434,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -7230,13 +6501,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -7297,13 +6568,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -7364,13 +6635,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -7431,13 +6702,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -7498,13 +6769,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -8573,81 +7844,81 @@
     <tabColor rgb="FF0070C0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN94"/>
+  <dimension ref="A1:AN97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:L8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="2" style="1" customWidth="1"/>
-    <col min="3" max="3" width="1.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="1.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="1" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="1.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.5703125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="1.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.44140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="18.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="1.6640625" style="1" customWidth="1"/>
     <col min="24" max="24" width="12" style="1" customWidth="1"/>
     <col min="25" max="25" width="1" style="1" customWidth="1"/>
     <col min="26" max="26" width="2" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.28515625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="16.28515625" style="1" customWidth="1"/>
-    <col min="29" max="30" width="19.28515625" style="8" customWidth="1"/>
-    <col min="31" max="31" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="3.28515625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.28515625" style="1"/>
+    <col min="27" max="27" width="9.33203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="16.33203125" style="1" customWidth="1"/>
+    <col min="29" max="30" width="19.33203125" style="8" customWidth="1"/>
+    <col min="31" max="31" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="3.33203125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36"/>
     </row>
-    <row r="2" spans="1:40" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
-      <c r="B2" s="189"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="190"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="264" t="s">
-        <v>133</v>
-      </c>
-      <c r="U2" s="264"/>
-      <c r="V2" s="265"/>
-      <c r="W2" s="265"/>
-      <c r="X2" s="265"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="189"/>
+      <c r="O2" s="189"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="189"/>
+      <c r="T2" s="263" t="s">
+        <v>130</v>
+      </c>
+      <c r="U2" s="263"/>
+      <c r="V2" s="264"/>
+      <c r="W2" s="264"/>
+      <c r="X2" s="264"/>
       <c r="Y2" s="105"/>
       <c r="Z2" s="106"/>
       <c r="AA2" s="3"/>
@@ -8663,35 +7934,35 @@
       <c r="AK2" s="6"/>
       <c r="AN2" s="1"/>
     </row>
-    <row r="3" spans="1:40" s="58" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" s="58" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="52"/>
       <c r="B3" s="107"/>
       <c r="C3" s="54"/>
       <c r="D3" s="54"/>
       <c r="E3" s="54"/>
-      <c r="F3" s="270" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="270"/>
-      <c r="H3" s="270"/>
-      <c r="I3" s="270"/>
-      <c r="J3" s="270"/>
-      <c r="K3" s="270"/>
-      <c r="L3" s="270"/>
-      <c r="M3" s="270"/>
-      <c r="N3" s="270"/>
-      <c r="O3" s="270"/>
-      <c r="P3" s="270"/>
-      <c r="Q3" s="270"/>
-      <c r="R3" s="270"/>
-      <c r="S3" s="270"/>
-      <c r="T3" s="256" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="256"/>
-      <c r="V3" s="257"/>
-      <c r="W3" s="257"/>
-      <c r="X3" s="257"/>
+      <c r="F3" s="269" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="269"/>
+      <c r="H3" s="269"/>
+      <c r="I3" s="269"/>
+      <c r="J3" s="269"/>
+      <c r="K3" s="269"/>
+      <c r="L3" s="269"/>
+      <c r="M3" s="269"/>
+      <c r="N3" s="269"/>
+      <c r="O3" s="269"/>
+      <c r="P3" s="269"/>
+      <c r="Q3" s="269"/>
+      <c r="R3" s="269"/>
+      <c r="S3" s="269"/>
+      <c r="T3" s="255" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="255"/>
+      <c r="V3" s="256"/>
+      <c r="W3" s="256"/>
+      <c r="X3" s="256"/>
       <c r="Y3" s="114"/>
       <c r="Z3" s="108"/>
       <c r="AA3" s="54"/>
@@ -8707,33 +7978,33 @@
       <c r="AK3" s="57"/>
       <c r="AN3" s="59"/>
     </row>
-    <row r="4" spans="1:40" s="58" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" s="58" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="52"/>
       <c r="B4" s="107"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
       <c r="E4" s="54"/>
-      <c r="F4" s="270"/>
-      <c r="G4" s="270"/>
-      <c r="H4" s="270"/>
-      <c r="I4" s="270"/>
-      <c r="J4" s="270"/>
-      <c r="K4" s="270"/>
-      <c r="L4" s="270"/>
-      <c r="M4" s="270"/>
-      <c r="N4" s="270"/>
-      <c r="O4" s="270"/>
-      <c r="P4" s="270"/>
-      <c r="Q4" s="270"/>
-      <c r="R4" s="270"/>
-      <c r="S4" s="270"/>
-      <c r="T4" s="256" t="s">
-        <v>51</v>
-      </c>
-      <c r="U4" s="256"/>
-      <c r="V4" s="257"/>
-      <c r="W4" s="257"/>
-      <c r="X4" s="257"/>
+      <c r="F4" s="269"/>
+      <c r="G4" s="269"/>
+      <c r="H4" s="269"/>
+      <c r="I4" s="269"/>
+      <c r="J4" s="269"/>
+      <c r="K4" s="269"/>
+      <c r="L4" s="269"/>
+      <c r="M4" s="269"/>
+      <c r="N4" s="269"/>
+      <c r="O4" s="269"/>
+      <c r="P4" s="269"/>
+      <c r="Q4" s="269"/>
+      <c r="R4" s="269"/>
+      <c r="S4" s="269"/>
+      <c r="T4" s="255" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" s="255"/>
+      <c r="V4" s="256"/>
+      <c r="W4" s="256"/>
+      <c r="X4" s="256"/>
       <c r="Y4" s="114"/>
       <c r="Z4" s="108"/>
       <c r="AA4" s="54"/>
@@ -8749,33 +8020,33 @@
       <c r="AK4" s="57"/>
       <c r="AN4" s="59"/>
     </row>
-    <row r="5" spans="1:40" s="58" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" s="58" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="52"/>
       <c r="B5" s="107"/>
       <c r="C5" s="54"/>
       <c r="D5" s="54"/>
       <c r="E5" s="54"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="270"/>
-      <c r="M5" s="270"/>
-      <c r="N5" s="270"/>
-      <c r="O5" s="270"/>
-      <c r="P5" s="270"/>
-      <c r="Q5" s="270"/>
-      <c r="R5" s="270"/>
-      <c r="S5" s="270"/>
-      <c r="T5" s="256" t="s">
-        <v>44</v>
-      </c>
-      <c r="U5" s="256"/>
-      <c r="V5" s="257"/>
-      <c r="W5" s="257"/>
-      <c r="X5" s="257"/>
+      <c r="F5" s="269"/>
+      <c r="G5" s="269"/>
+      <c r="H5" s="269"/>
+      <c r="I5" s="269"/>
+      <c r="J5" s="269"/>
+      <c r="K5" s="269"/>
+      <c r="L5" s="269"/>
+      <c r="M5" s="269"/>
+      <c r="N5" s="269"/>
+      <c r="O5" s="269"/>
+      <c r="P5" s="269"/>
+      <c r="Q5" s="269"/>
+      <c r="R5" s="269"/>
+      <c r="S5" s="269"/>
+      <c r="T5" s="255" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" s="255"/>
+      <c r="V5" s="256"/>
+      <c r="W5" s="256"/>
+      <c r="X5" s="256"/>
       <c r="Y5" s="114"/>
       <c r="Z5" s="108"/>
       <c r="AA5" s="54"/>
@@ -8791,31 +8062,31 @@
       <c r="AK5" s="57"/>
       <c r="AN5" s="59"/>
     </row>
-    <row r="6" spans="1:40" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="35"/>
       <c r="B6" s="109"/>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
-      <c r="F6" s="279"/>
-      <c r="G6" s="279"/>
-      <c r="H6" s="279"/>
-      <c r="I6" s="279"/>
-      <c r="J6" s="279"/>
-      <c r="K6" s="279"/>
-      <c r="L6" s="279"/>
-      <c r="M6" s="279"/>
-      <c r="N6" s="279"/>
-      <c r="O6" s="279"/>
-      <c r="P6" s="279"/>
-      <c r="Q6" s="279"/>
-      <c r="R6" s="279"/>
-      <c r="S6" s="279"/>
-      <c r="T6" s="280"/>
-      <c r="U6" s="280"/>
-      <c r="V6" s="281"/>
-      <c r="W6" s="281"/>
-      <c r="X6" s="281"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="278"/>
+      <c r="H6" s="278"/>
+      <c r="I6" s="278"/>
+      <c r="J6" s="278"/>
+      <c r="K6" s="278"/>
+      <c r="L6" s="278"/>
+      <c r="M6" s="278"/>
+      <c r="N6" s="278"/>
+      <c r="O6" s="278"/>
+      <c r="P6" s="278"/>
+      <c r="Q6" s="278"/>
+      <c r="R6" s="278"/>
+      <c r="S6" s="278"/>
+      <c r="T6" s="279"/>
+      <c r="U6" s="279"/>
+      <c r="V6" s="280"/>
+      <c r="W6" s="280"/>
+      <c r="X6" s="280"/>
       <c r="Y6" s="110"/>
       <c r="Z6" s="111"/>
       <c r="AA6" s="3"/>
@@ -8831,7 +8102,7 @@
       <c r="AK6" s="6"/>
       <c r="AN6" s="1"/>
     </row>
-    <row r="7" spans="1:40" s="2" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" s="2" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
       <c r="B7" s="9"/>
       <c r="C7" s="64"/>
@@ -8871,47 +8142,47 @@
       <c r="AK7" s="7"/>
       <c r="AN7" s="1"/>
     </row>
-    <row r="8" spans="1:40" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" s="2" customFormat="1" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A8" s="34"/>
       <c r="B8" s="9"/>
       <c r="C8" s="64"/>
       <c r="D8" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="71"/>
+      <c r="F8" s="273"/>
+      <c r="G8" s="273"/>
+      <c r="H8" s="273"/>
+      <c r="I8" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8" s="273" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="273"/>
+      <c r="L8" s="273"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="284" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="274"/>
-      <c r="G8" s="274"/>
-      <c r="H8" s="274"/>
-      <c r="I8" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="J8" s="274" t="s">
-        <v>119</v>
-      </c>
-      <c r="K8" s="274"/>
-      <c r="L8" s="274"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="285" t="s">
-        <v>59</v>
-      </c>
-      <c r="O8" s="286"/>
-      <c r="P8" s="287"/>
-      <c r="Q8" s="288" t="str">
+      <c r="O8" s="285"/>
+      <c r="P8" s="286"/>
+      <c r="Q8" s="287" t="str">
         <f>VLOOKUP(J8,[1]HIERARQUIA!$A$1:$C$58,2,FALSE)</f>
         <v>GA</v>
       </c>
-      <c r="R8" s="289"/>
-      <c r="S8" s="275" t="s">
-        <v>58</v>
-      </c>
-      <c r="T8" s="276"/>
-      <c r="U8" s="277" t="str">
+      <c r="R8" s="288"/>
+      <c r="S8" s="274" t="s">
+        <v>55</v>
+      </c>
+      <c r="T8" s="275"/>
+      <c r="U8" s="276" t="str">
         <f>VLOOKUP(J8,[1]HIERARQUIA!$A$1:$C$58,3,FALSE)</f>
         <v>DC</v>
       </c>
-      <c r="V8" s="277"/>
-      <c r="W8" s="277"/>
-      <c r="X8" s="277"/>
+      <c r="V8" s="276"/>
+      <c r="W8" s="276"/>
+      <c r="X8" s="276"/>
       <c r="Y8" s="69"/>
       <c r="Z8" s="10"/>
       <c r="AA8" s="3"/>
@@ -8927,7 +8198,7 @@
       <c r="AK8" s="7"/>
       <c r="AN8" s="1"/>
     </row>
-    <row r="9" spans="1:40" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
       <c r="B9" s="9"/>
       <c r="C9" s="64"/>
@@ -8967,12 +8238,12 @@
       <c r="AK9" s="7"/>
       <c r="AN9" s="1"/>
     </row>
-    <row r="10" spans="1:40" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34"/>
       <c r="B10" s="12"/>
       <c r="C10" s="72"/>
       <c r="D10" s="70" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E10" s="72"/>
       <c r="F10" s="50"/>
@@ -8980,32 +8251,32 @@
         <v>14</v>
       </c>
       <c r="H10" s="103"/>
-      <c r="I10" s="271" t="s">
+      <c r="I10" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="272"/>
-      <c r="K10" s="273"/>
+      <c r="J10" s="271"/>
+      <c r="K10" s="272"/>
       <c r="L10" s="44"/>
       <c r="M10" s="73"/>
       <c r="N10" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="253"/>
-      <c r="P10" s="255"/>
+        <v>33</v>
+      </c>
+      <c r="O10" s="252"/>
+      <c r="P10" s="254"/>
       <c r="Q10" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="R10" s="253"/>
-      <c r="S10" s="254"/>
-      <c r="T10" s="254"/>
-      <c r="U10" s="255"/>
+        <v>60</v>
+      </c>
+      <c r="R10" s="252"/>
+      <c r="S10" s="253"/>
+      <c r="T10" s="253"/>
+      <c r="U10" s="254"/>
       <c r="V10" s="70" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="W10" s="74"/>
-      <c r="X10" s="113" t="e">
+      <c r="X10" s="113">
         <f>IF(N12="N/A","N/A",((S12/N12)-1))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="72"/>
       <c r="Z10" s="13"/>
@@ -9021,7 +8292,7 @@
       <c r="AK10" s="15"/>
       <c r="AN10" s="17"/>
     </row>
-    <row r="11" spans="1:40" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34"/>
       <c r="B11" s="12"/>
       <c r="C11" s="72"/>
@@ -9061,7 +8332,7 @@
       <c r="AK11" s="15"/>
       <c r="AN11" s="17"/>
     </row>
-    <row r="12" spans="1:40" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="34"/>
       <c r="B12" s="12"/>
       <c r="C12" s="72"/>
@@ -9069,38 +8340,46 @@
         <v>5</v>
       </c>
       <c r="E12" s="80"/>
-      <c r="F12" s="267"/>
-      <c r="G12" s="268"/>
-      <c r="H12" s="269"/>
+      <c r="F12" s="266"/>
+      <c r="G12" s="267"/>
+      <c r="H12" s="268"/>
       <c r="I12" s="70" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J12" s="70"/>
-      <c r="K12" s="102"/>
+      <c r="K12" s="102">
+        <v>49739</v>
+      </c>
       <c r="L12" s="70" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M12" s="63"/>
-      <c r="N12" s="181"/>
-      <c r="O12" s="271" t="s">
-        <v>132</v>
-      </c>
-      <c r="P12" s="273"/>
-      <c r="Q12" s="180" t="str">
+      <c r="N12" s="180">
+        <v>49739</v>
+      </c>
+      <c r="O12" s="270" t="s">
+        <v>129</v>
+      </c>
+      <c r="P12" s="272"/>
+      <c r="Q12" s="179" t="str">
         <f>IF(N12="N/A","N/A","")</f>
         <v/>
       </c>
       <c r="R12" s="104" t="s">
-        <v>125</v>
-      </c>
-      <c r="S12" s="278"/>
-      <c r="T12" s="278"/>
+        <v>122</v>
+      </c>
+      <c r="S12" s="277">
+        <v>49739</v>
+      </c>
+      <c r="T12" s="277"/>
       <c r="U12" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="V12" s="282"/>
-      <c r="W12" s="283"/>
-      <c r="X12" s="284"/>
+        <v>32</v>
+      </c>
+      <c r="V12" s="281">
+        <v>49739</v>
+      </c>
+      <c r="W12" s="282"/>
+      <c r="X12" s="283"/>
       <c r="Y12" s="72"/>
       <c r="Z12" s="13"/>
       <c r="AA12" s="14"/>
@@ -9114,7 +8393,7 @@
       <c r="AK12" s="15"/>
       <c r="AN12" s="17"/>
     </row>
-    <row r="13" spans="1:40" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="12"/>
       <c r="C13" s="72"/>
@@ -9154,7 +8433,7 @@
       <c r="AK13" s="15"/>
       <c r="AN13" s="17"/>
     </row>
-    <row r="14" spans="1:40" s="16" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" s="16" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="35"/>
       <c r="B14" s="12"/>
       <c r="C14" s="72"/>
@@ -9194,7 +8473,7 @@
       <c r="AK14" s="15"/>
       <c r="AN14" s="17"/>
     </row>
-    <row r="15" spans="1:40" s="16" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" s="16" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="35"/>
       <c r="B15" s="12"/>
       <c r="C15" s="72"/>
@@ -9207,32 +8486,32 @@
         <v>1</v>
       </c>
       <c r="H15" s="44"/>
-      <c r="I15" s="266"/>
+      <c r="I15" s="265"/>
       <c r="J15" s="88"/>
-      <c r="K15" s="197" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="198"/>
+      <c r="K15" s="196" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="197"/>
       <c r="M15" s="60"/>
-      <c r="N15" s="197" t="s">
+      <c r="N15" s="196" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" s="207"/>
+      <c r="P15" s="196" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q15" s="197"/>
+      <c r="R15" s="207"/>
+      <c r="S15" s="196" t="s">
+        <v>126</v>
+      </c>
+      <c r="T15" s="197"/>
+      <c r="U15" s="207"/>
+      <c r="V15" s="196" t="s">
         <v>127</v>
       </c>
-      <c r="O15" s="208"/>
-      <c r="P15" s="197" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q15" s="198"/>
-      <c r="R15" s="208"/>
-      <c r="S15" s="197" t="s">
-        <v>129</v>
-      </c>
-      <c r="T15" s="198"/>
-      <c r="U15" s="208"/>
-      <c r="V15" s="197" t="s">
-        <v>130</v>
-      </c>
-      <c r="W15" s="198"/>
-      <c r="X15" s="208"/>
+      <c r="W15" s="197"/>
+      <c r="X15" s="207"/>
       <c r="Y15" s="85"/>
       <c r="Z15" s="18"/>
       <c r="AA15" s="14"/>
@@ -9248,7 +8527,7 @@
       <c r="AK15" s="15"/>
       <c r="AN15" s="17"/>
     </row>
-    <row r="16" spans="1:40" s="16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" s="16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="35"/>
       <c r="B16" s="12"/>
       <c r="C16" s="72"/>
@@ -9257,34 +8536,34 @@
       <c r="F16" s="77"/>
       <c r="G16" s="77"/>
       <c r="H16" s="77"/>
-      <c r="I16" s="266"/>
+      <c r="I16" s="265"/>
       <c r="J16" s="88"/>
-      <c r="K16" s="199"/>
-      <c r="L16" s="200"/>
+      <c r="K16" s="198"/>
+      <c r="L16" s="199"/>
       <c r="M16" s="89"/>
-      <c r="N16" s="209" t="e">
+      <c r="N16" s="208">
         <f>IF(N12="N/A","Primeira Compra",(-1+V12/N12))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="210"/>
-      <c r="P16" s="209" t="e">
+        <v>0</v>
+      </c>
+      <c r="O16" s="209"/>
+      <c r="P16" s="208">
         <f>-1+V12/S12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q16" s="211"/>
-      <c r="R16" s="210"/>
-      <c r="S16" s="209" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="210"/>
+      <c r="R16" s="209"/>
+      <c r="S16" s="208" t="e">
         <f>-1+V12/H10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T16" s="211"/>
-      <c r="U16" s="210"/>
-      <c r="V16" s="209" t="e">
+      <c r="T16" s="210"/>
+      <c r="U16" s="209"/>
+      <c r="V16" s="208">
         <f>-1+V12/K12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W16" s="211"/>
-      <c r="X16" s="210"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="210"/>
+      <c r="X16" s="209"/>
       <c r="Y16" s="85"/>
       <c r="Z16" s="18"/>
       <c r="AA16" s="14"/>
@@ -9300,7 +8579,7 @@
       <c r="AK16" s="15"/>
       <c r="AN16" s="17"/>
     </row>
-    <row r="17" spans="2:40" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:40" s="19" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B17" s="20"/>
       <c r="C17" s="90"/>
       <c r="D17" s="70" t="s">
@@ -9312,34 +8591,34 @@
         <v>13</v>
       </c>
       <c r="H17" s="44"/>
-      <c r="I17" s="266"/>
+      <c r="I17" s="265"/>
       <c r="J17" s="88"/>
-      <c r="K17" s="201"/>
-      <c r="L17" s="202"/>
+      <c r="K17" s="200"/>
+      <c r="L17" s="201"/>
       <c r="M17" s="61"/>
-      <c r="N17" s="203">
+      <c r="N17" s="202">
         <f>IF(N12="N/A","",(V12-N12))</f>
         <v>0</v>
       </c>
-      <c r="O17" s="204"/>
-      <c r="P17" s="203">
+      <c r="O17" s="203"/>
+      <c r="P17" s="202">
         <f>V12-S12</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="205"/>
-      <c r="R17" s="206"/>
-      <c r="S17" s="203">
+      <c r="Q17" s="204"/>
+      <c r="R17" s="205"/>
+      <c r="S17" s="202">
         <f>V12-H10</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="205"/>
-      <c r="U17" s="206"/>
-      <c r="V17" s="203">
+        <v>49739</v>
+      </c>
+      <c r="T17" s="204"/>
+      <c r="U17" s="205"/>
+      <c r="V17" s="202">
         <f>V12-K12</f>
         <v>0</v>
       </c>
-      <c r="W17" s="207"/>
-      <c r="X17" s="204"/>
+      <c r="W17" s="206"/>
+      <c r="X17" s="203"/>
       <c r="Y17" s="91"/>
       <c r="Z17" s="23"/>
       <c r="AA17" s="21"/>
@@ -9352,7 +8631,7 @@
       <c r="AJ17" s="22"/>
       <c r="AK17" s="22"/>
     </row>
-    <row r="18" spans="2:40" s="16" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:40" s="16" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
       <c r="C18" s="72"/>
       <c r="D18" s="75"/>
@@ -9391,7 +8670,7 @@
       <c r="AK18" s="15"/>
       <c r="AN18" s="17"/>
     </row>
-    <row r="19" spans="2:40" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:40" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
       <c r="C19" s="72"/>
       <c r="D19" s="75"/>
@@ -9430,32 +8709,32 @@
       <c r="AK19" s="15"/>
       <c r="AN19" s="17"/>
     </row>
-    <row r="20" spans="2:40" s="16" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:40" s="16" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="72"/>
       <c r="D20" s="70" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" s="184"/>
-      <c r="F20" s="212"/>
-      <c r="G20" s="212"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="212"/>
-      <c r="J20" s="212"/>
-      <c r="K20" s="212"/>
-      <c r="L20" s="212"/>
-      <c r="M20" s="212"/>
-      <c r="N20" s="212"/>
-      <c r="O20" s="212"/>
-      <c r="P20" s="212"/>
-      <c r="Q20" s="212"/>
-      <c r="R20" s="212"/>
-      <c r="S20" s="212"/>
-      <c r="T20" s="212"/>
-      <c r="U20" s="212"/>
-      <c r="V20" s="212"/>
-      <c r="W20" s="212"/>
-      <c r="X20" s="212"/>
+        <v>121</v>
+      </c>
+      <c r="E20" s="183"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
+      <c r="H20" s="211"/>
+      <c r="I20" s="211"/>
+      <c r="J20" s="211"/>
+      <c r="K20" s="211"/>
+      <c r="L20" s="211"/>
+      <c r="M20" s="211"/>
+      <c r="N20" s="211"/>
+      <c r="O20" s="211"/>
+      <c r="P20" s="211"/>
+      <c r="Q20" s="211"/>
+      <c r="R20" s="211"/>
+      <c r="S20" s="211"/>
+      <c r="T20" s="211"/>
+      <c r="U20" s="211"/>
+      <c r="V20" s="211"/>
+      <c r="W20" s="211"/>
+      <c r="X20" s="211"/>
       <c r="Y20" s="92"/>
       <c r="Z20" s="18"/>
       <c r="AA20" s="14"/>
@@ -9471,30 +8750,30 @@
       <c r="AK20" s="15"/>
       <c r="AN20" s="17"/>
     </row>
-    <row r="21" spans="2:40" s="2" customFormat="1" ht="9.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:40" s="2" customFormat="1" ht="9.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" s="64"/>
       <c r="D21" s="66"/>
       <c r="E21" s="66"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="183"/>
-      <c r="K21" s="183"/>
-      <c r="L21" s="183"/>
-      <c r="M21" s="183"/>
-      <c r="N21" s="183"/>
-      <c r="O21" s="183"/>
-      <c r="P21" s="183"/>
-      <c r="Q21" s="183"/>
-      <c r="R21" s="183"/>
-      <c r="S21" s="183"/>
-      <c r="T21" s="183"/>
-      <c r="U21" s="183"/>
-      <c r="V21" s="183"/>
-      <c r="W21" s="183"/>
-      <c r="X21" s="183"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="182"/>
+      <c r="K21" s="182"/>
+      <c r="L21" s="182"/>
+      <c r="M21" s="182"/>
+      <c r="N21" s="182"/>
+      <c r="O21" s="182"/>
+      <c r="P21" s="182"/>
+      <c r="Q21" s="182"/>
+      <c r="R21" s="182"/>
+      <c r="S21" s="182"/>
+      <c r="T21" s="182"/>
+      <c r="U21" s="182"/>
+      <c r="V21" s="182"/>
+      <c r="W21" s="182"/>
+      <c r="X21" s="182"/>
       <c r="Y21" s="92"/>
       <c r="Z21" s="10"/>
       <c r="AA21" s="3"/>
@@ -9514,28 +8793,28 @@
       <c r="B22" s="9"/>
       <c r="C22" s="64"/>
       <c r="D22" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" s="184"/>
-      <c r="F22" s="212"/>
-      <c r="G22" s="212"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="212"/>
-      <c r="J22" s="212"/>
-      <c r="K22" s="212"/>
-      <c r="L22" s="212"/>
-      <c r="M22" s="212"/>
-      <c r="N22" s="212"/>
-      <c r="O22" s="212"/>
-      <c r="P22" s="212"/>
-      <c r="Q22" s="212"/>
-      <c r="R22" s="212"/>
-      <c r="S22" s="212"/>
-      <c r="T22" s="212"/>
-      <c r="U22" s="212"/>
-      <c r="V22" s="212"/>
-      <c r="W22" s="212"/>
-      <c r="X22" s="212"/>
+        <v>138</v>
+      </c>
+      <c r="E22" s="183"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="211"/>
+      <c r="I22" s="211"/>
+      <c r="J22" s="211"/>
+      <c r="K22" s="211"/>
+      <c r="L22" s="211"/>
+      <c r="M22" s="211"/>
+      <c r="N22" s="211"/>
+      <c r="O22" s="211"/>
+      <c r="P22" s="211"/>
+      <c r="Q22" s="211"/>
+      <c r="R22" s="211"/>
+      <c r="S22" s="211"/>
+      <c r="T22" s="211"/>
+      <c r="U22" s="211"/>
+      <c r="V22" s="211"/>
+      <c r="W22" s="211"/>
+      <c r="X22" s="211"/>
       <c r="Y22" s="92"/>
       <c r="Z22" s="10"/>
       <c r="AA22" s="3"/>
@@ -9593,35 +8872,35 @@
     <row r="24" spans="2:40" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="31"/>
       <c r="C24" s="94"/>
-      <c r="D24" s="213" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="214"/>
-      <c r="F24" s="214"/>
-      <c r="G24" s="214"/>
-      <c r="H24" s="214"/>
-      <c r="I24" s="214"/>
-      <c r="J24" s="214"/>
-      <c r="K24" s="214"/>
-      <c r="L24" s="214"/>
-      <c r="M24" s="214"/>
-      <c r="N24" s="214"/>
-      <c r="O24" s="214"/>
-      <c r="P24" s="214"/>
-      <c r="Q24" s="214"/>
-      <c r="R24" s="214"/>
-      <c r="S24" s="214"/>
-      <c r="T24" s="214"/>
-      <c r="U24" s="214"/>
-      <c r="V24" s="214"/>
-      <c r="W24" s="214"/>
-      <c r="X24" s="215"/>
+      <c r="D24" s="212" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="213"/>
+      <c r="F24" s="213"/>
+      <c r="G24" s="213"/>
+      <c r="H24" s="213"/>
+      <c r="I24" s="213"/>
+      <c r="J24" s="213"/>
+      <c r="K24" s="213"/>
+      <c r="L24" s="213"/>
+      <c r="M24" s="213"/>
+      <c r="N24" s="213"/>
+      <c r="O24" s="213"/>
+      <c r="P24" s="213"/>
+      <c r="Q24" s="213"/>
+      <c r="R24" s="213"/>
+      <c r="S24" s="213"/>
+      <c r="T24" s="213"/>
+      <c r="U24" s="213"/>
+      <c r="V24" s="213"/>
+      <c r="W24" s="213"/>
+      <c r="X24" s="214"/>
       <c r="Y24" s="95"/>
       <c r="Z24" s="32"/>
       <c r="AB24" s="43"/>
       <c r="AC24" s="43"/>
     </row>
-    <row r="25" spans="2:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:40" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="31"/>
       <c r="C25" s="94"/>
       <c r="D25" s="96"/>
@@ -9648,36 +8927,36 @@
       <c r="Y25" s="95"/>
       <c r="Z25" s="32"/>
     </row>
-    <row r="26" spans="2:40" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:40" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
       <c r="C26" s="64"/>
-      <c r="D26" s="216" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="217"/>
-      <c r="F26" s="218"/>
-      <c r="G26" s="219"/>
-      <c r="H26" s="220"/>
-      <c r="I26" s="219"/>
-      <c r="J26" s="258"/>
-      <c r="K26" s="220"/>
-      <c r="L26" s="219"/>
-      <c r="M26" s="258"/>
-      <c r="N26" s="220"/>
-      <c r="O26" s="219"/>
-      <c r="P26" s="258"/>
-      <c r="Q26" s="220"/>
-      <c r="R26" s="219"/>
-      <c r="S26" s="258"/>
-      <c r="T26" s="220"/>
-      <c r="U26" s="219"/>
-      <c r="V26" s="258"/>
-      <c r="W26" s="258"/>
-      <c r="X26" s="220"/>
+      <c r="D26" s="215" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="216"/>
+      <c r="F26" s="217"/>
+      <c r="G26" s="218"/>
+      <c r="H26" s="219"/>
+      <c r="I26" s="218"/>
+      <c r="J26" s="257"/>
+      <c r="K26" s="219"/>
+      <c r="L26" s="218"/>
+      <c r="M26" s="257"/>
+      <c r="N26" s="219"/>
+      <c r="O26" s="218"/>
+      <c r="P26" s="257"/>
+      <c r="Q26" s="219"/>
+      <c r="R26" s="218"/>
+      <c r="S26" s="257"/>
+      <c r="T26" s="219"/>
+      <c r="U26" s="218"/>
+      <c r="V26" s="257"/>
+      <c r="W26" s="257"/>
+      <c r="X26" s="219"/>
       <c r="Y26" s="97"/>
       <c r="Z26" s="24"/>
     </row>
-    <row r="27" spans="2:40" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:40" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
       <c r="C27" s="64"/>
       <c r="D27" s="64"/>
@@ -9706,350 +8985,350 @@
       <c r="AC27" s="8"/>
       <c r="AD27" s="8"/>
     </row>
-    <row r="28" spans="2:40" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:40" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
       <c r="C28" s="64"/>
-      <c r="D28" s="240" t="s">
+      <c r="D28" s="239" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="241"/>
-      <c r="F28" s="242"/>
-      <c r="G28" s="247"/>
-      <c r="H28" s="248"/>
-      <c r="I28" s="243"/>
-      <c r="J28" s="244"/>
-      <c r="K28" s="245"/>
-      <c r="L28" s="243" t="str">
+      <c r="E28" s="240"/>
+      <c r="F28" s="241"/>
+      <c r="G28" s="246"/>
+      <c r="H28" s="247"/>
+      <c r="I28" s="242"/>
+      <c r="J28" s="243"/>
+      <c r="K28" s="244"/>
+      <c r="L28" s="242" t="str">
         <f>IF(L26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="M28" s="244"/>
-      <c r="N28" s="245"/>
-      <c r="O28" s="231" t="str">
+      <c r="M28" s="243"/>
+      <c r="N28" s="244"/>
+      <c r="O28" s="230" t="str">
         <f>IF(O26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="P28" s="232"/>
-      <c r="Q28" s="246"/>
-      <c r="R28" s="251" t="str">
+      <c r="P28" s="231"/>
+      <c r="Q28" s="245"/>
+      <c r="R28" s="250" t="str">
         <f>IF(R26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="S28" s="232"/>
-      <c r="T28" s="252"/>
-      <c r="U28" s="231" t="str">
+      <c r="S28" s="231"/>
+      <c r="T28" s="251"/>
+      <c r="U28" s="230" t="str">
         <f>IF(U26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="V28" s="232"/>
-      <c r="W28" s="232"/>
-      <c r="X28" s="233"/>
+      <c r="V28" s="231"/>
+      <c r="W28" s="231"/>
+      <c r="X28" s="232"/>
       <c r="Y28" s="99"/>
       <c r="Z28" s="25"/>
       <c r="AD28" s="8"/>
     </row>
-    <row r="29" spans="2:40" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:40" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="64"/>
-      <c r="D29" s="194" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" s="195"/>
-      <c r="F29" s="196"/>
-      <c r="G29" s="234"/>
-      <c r="H29" s="235"/>
-      <c r="I29" s="236"/>
-      <c r="J29" s="237"/>
-      <c r="K29" s="238"/>
-      <c r="L29" s="236" t="str">
+      <c r="D29" s="193" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="194"/>
+      <c r="F29" s="195"/>
+      <c r="G29" s="233"/>
+      <c r="H29" s="234"/>
+      <c r="I29" s="235"/>
+      <c r="J29" s="236"/>
+      <c r="K29" s="237"/>
+      <c r="L29" s="235" t="str">
         <f>IF(L26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="M29" s="237"/>
-      <c r="N29" s="238"/>
-      <c r="O29" s="191" t="str">
+      <c r="M29" s="236"/>
+      <c r="N29" s="237"/>
+      <c r="O29" s="190" t="str">
         <f>IF(O26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="P29" s="192"/>
-      <c r="Q29" s="239"/>
-      <c r="R29" s="249" t="str">
+      <c r="P29" s="191"/>
+      <c r="Q29" s="238"/>
+      <c r="R29" s="248" t="str">
         <f>IF(R26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="S29" s="192"/>
-      <c r="T29" s="250"/>
-      <c r="U29" s="191" t="str">
+      <c r="S29" s="191"/>
+      <c r="T29" s="249"/>
+      <c r="U29" s="190" t="str">
         <f>IF(U26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="V29" s="192"/>
-      <c r="W29" s="192"/>
-      <c r="X29" s="193"/>
+      <c r="V29" s="191"/>
+      <c r="W29" s="191"/>
+      <c r="X29" s="192"/>
       <c r="Y29" s="99"/>
       <c r="Z29" s="25"/>
       <c r="AC29" s="8"/>
       <c r="AD29" s="8"/>
     </row>
-    <row r="30" spans="2:40" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:40" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
       <c r="C30" s="64"/>
-      <c r="D30" s="194" t="s">
+      <c r="D30" s="193" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="195"/>
-      <c r="F30" s="196"/>
-      <c r="G30" s="335"/>
-      <c r="H30" s="336"/>
-      <c r="I30" s="236"/>
-      <c r="J30" s="237"/>
-      <c r="K30" s="238"/>
-      <c r="L30" s="236" t="str">
+      <c r="E30" s="194"/>
+      <c r="F30" s="195"/>
+      <c r="G30" s="334"/>
+      <c r="H30" s="335"/>
+      <c r="I30" s="235"/>
+      <c r="J30" s="236"/>
+      <c r="K30" s="237"/>
+      <c r="L30" s="235" t="str">
         <f>IF(L26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="M30" s="237"/>
-      <c r="N30" s="238"/>
-      <c r="O30" s="191" t="str">
+      <c r="M30" s="236"/>
+      <c r="N30" s="237"/>
+      <c r="O30" s="190" t="str">
         <f>IF(O26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="P30" s="192"/>
-      <c r="Q30" s="239"/>
-      <c r="R30" s="249" t="str">
+      <c r="P30" s="191"/>
+      <c r="Q30" s="238"/>
+      <c r="R30" s="248" t="str">
         <f>IF(R26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="S30" s="192"/>
-      <c r="T30" s="250"/>
-      <c r="U30" s="191" t="str">
+      <c r="S30" s="191"/>
+      <c r="T30" s="249"/>
+      <c r="U30" s="190" t="str">
         <f>IF(U26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="V30" s="192"/>
-      <c r="W30" s="192"/>
-      <c r="X30" s="193"/>
+      <c r="V30" s="191"/>
+      <c r="W30" s="191"/>
+      <c r="X30" s="192"/>
       <c r="Y30" s="99"/>
       <c r="Z30" s="25"/>
       <c r="AC30" s="8"/>
       <c r="AD30" s="8"/>
     </row>
-    <row r="31" spans="2:40" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:40" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="64"/>
-      <c r="D31" s="194" t="s">
-        <v>135</v>
-      </c>
-      <c r="E31" s="195"/>
-      <c r="F31" s="196"/>
-      <c r="G31" s="221"/>
-      <c r="H31" s="222"/>
-      <c r="I31" s="223" t="str">
+      <c r="D31" s="193" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="194"/>
+      <c r="F31" s="195"/>
+      <c r="G31" s="220"/>
+      <c r="H31" s="221"/>
+      <c r="I31" s="222" t="str">
         <f>IF(I26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="J31" s="224"/>
-      <c r="K31" s="225"/>
-      <c r="L31" s="223" t="str">
+      <c r="J31" s="223"/>
+      <c r="K31" s="224"/>
+      <c r="L31" s="222" t="str">
         <f>IF(L26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="M31" s="224"/>
-      <c r="N31" s="225"/>
-      <c r="O31" s="226" t="str">
+      <c r="M31" s="223"/>
+      <c r="N31" s="224"/>
+      <c r="O31" s="225" t="str">
         <f>IF(O26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="P31" s="224"/>
-      <c r="Q31" s="227"/>
-      <c r="R31" s="337" t="str">
+      <c r="P31" s="223"/>
+      <c r="Q31" s="226"/>
+      <c r="R31" s="336" t="str">
         <f>IF(R26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="S31" s="229"/>
-      <c r="T31" s="338"/>
-      <c r="U31" s="228" t="str">
+      <c r="S31" s="228"/>
+      <c r="T31" s="337"/>
+      <c r="U31" s="227" t="str">
         <f>IF(U26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="V31" s="229"/>
-      <c r="W31" s="229"/>
-      <c r="X31" s="230"/>
+      <c r="V31" s="228"/>
+      <c r="W31" s="228"/>
+      <c r="X31" s="229"/>
       <c r="Y31" s="99"/>
       <c r="Z31" s="25"/>
       <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
     </row>
-    <row r="32" spans="2:40" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:40" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
       <c r="C32" s="64"/>
-      <c r="D32" s="194" t="s">
-        <v>136</v>
-      </c>
-      <c r="E32" s="195"/>
-      <c r="F32" s="196"/>
-      <c r="G32" s="339" t="str">
+      <c r="D32" s="193" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="194"/>
+      <c r="F32" s="195"/>
+      <c r="G32" s="338" t="str">
         <f>IF(G30="","",(IF(G30="","",G30)))</f>
         <v/>
       </c>
-      <c r="H32" s="340"/>
-      <c r="I32" s="290" t="str">
+      <c r="H32" s="339"/>
+      <c r="I32" s="289" t="str">
         <f>IF(I30="","",(IF(I30="","",I30)))</f>
         <v/>
       </c>
-      <c r="J32" s="292"/>
-      <c r="K32" s="293"/>
-      <c r="L32" s="290" t="str">
+      <c r="J32" s="291"/>
+      <c r="K32" s="292"/>
+      <c r="L32" s="289" t="str">
         <f>IF(L30="","",L30)</f>
         <v/>
       </c>
-      <c r="M32" s="292"/>
-      <c r="N32" s="293"/>
-      <c r="O32" s="259" t="str">
+      <c r="M32" s="291"/>
+      <c r="N32" s="292"/>
+      <c r="O32" s="258" t="str">
         <f>IF(O30="","",O30)</f>
         <v/>
       </c>
-      <c r="P32" s="260"/>
-      <c r="Q32" s="261"/>
-      <c r="R32" s="262" t="str">
+      <c r="P32" s="259"/>
+      <c r="Q32" s="260"/>
+      <c r="R32" s="261" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="S32" s="260"/>
-      <c r="T32" s="263"/>
-      <c r="U32" s="259" t="str">
+      <c r="S32" s="259"/>
+      <c r="T32" s="262"/>
+      <c r="U32" s="258" t="str">
         <f>IF(U30="","",U30)</f>
         <v/>
       </c>
-      <c r="V32" s="260"/>
-      <c r="W32" s="260"/>
-      <c r="X32" s="261"/>
+      <c r="V32" s="259"/>
+      <c r="W32" s="259"/>
+      <c r="X32" s="260"/>
       <c r="Y32" s="99"/>
       <c r="Z32" s="25"/>
       <c r="AC32" s="8"/>
       <c r="AD32" s="8"/>
     </row>
-    <row r="33" spans="2:30" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
       <c r="C33" s="64"/>
-      <c r="D33" s="194" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="195"/>
-      <c r="F33" s="196"/>
-      <c r="G33" s="234"/>
-      <c r="H33" s="235"/>
-      <c r="I33" s="234"/>
-      <c r="J33" s="237"/>
-      <c r="K33" s="341"/>
-      <c r="L33" s="234"/>
-      <c r="M33" s="237"/>
-      <c r="N33" s="341"/>
-      <c r="O33" s="234"/>
-      <c r="P33" s="237"/>
-      <c r="Q33" s="341"/>
-      <c r="R33" s="234"/>
-      <c r="S33" s="237"/>
-      <c r="T33" s="341"/>
-      <c r="U33" s="191"/>
-      <c r="V33" s="192"/>
-      <c r="W33" s="192"/>
-      <c r="X33" s="193"/>
+      <c r="D33" s="193" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="194"/>
+      <c r="F33" s="195"/>
+      <c r="G33" s="233"/>
+      <c r="H33" s="234"/>
+      <c r="I33" s="233"/>
+      <c r="J33" s="236"/>
+      <c r="K33" s="340"/>
+      <c r="L33" s="233"/>
+      <c r="M33" s="236"/>
+      <c r="N33" s="340"/>
+      <c r="O33" s="233"/>
+      <c r="P33" s="236"/>
+      <c r="Q33" s="340"/>
+      <c r="R33" s="233"/>
+      <c r="S33" s="236"/>
+      <c r="T33" s="340"/>
+      <c r="U33" s="190"/>
+      <c r="V33" s="191"/>
+      <c r="W33" s="191"/>
+      <c r="X33" s="192"/>
       <c r="Y33" s="99"/>
       <c r="Z33" s="25"/>
       <c r="AC33" s="8"/>
       <c r="AD33" s="8"/>
     </row>
-    <row r="34" spans="2:30" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="9"/>
       <c r="C34" s="64"/>
-      <c r="D34" s="194" t="s">
+      <c r="D34" s="193" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="195"/>
-      <c r="F34" s="196"/>
-      <c r="G34" s="290" t="str">
+      <c r="E34" s="194"/>
+      <c r="F34" s="195"/>
+      <c r="G34" s="289" t="str">
         <f>IF(G33="","INFORMAR SE TEM DIFAL",IF(G33="SIM",(G30-(G30*G31)),"NÃO APLICÁVEL"))</f>
         <v>INFORMAR SE TEM DIFAL</v>
       </c>
-      <c r="H34" s="291"/>
-      <c r="I34" s="290" t="str">
+      <c r="H34" s="290"/>
+      <c r="I34" s="289" t="str">
         <f>IF(I33="","INFORMAR SE TEM DIFAL",IF(I33="SIM",(I30-(I30*I31)),"NÃO APLICÁVEL"))</f>
         <v>INFORMAR SE TEM DIFAL</v>
       </c>
-      <c r="J34" s="292"/>
-      <c r="K34" s="293"/>
-      <c r="L34" s="290" t="str">
+      <c r="J34" s="291"/>
+      <c r="K34" s="292"/>
+      <c r="L34" s="289" t="str">
         <f>IF(L33="","INFORMAR SE TEM DIFAL",IF(L33="SIM",(L30-(L30*L31)),"NÃO APLICÁVEL"))</f>
         <v>INFORMAR SE TEM DIFAL</v>
       </c>
-      <c r="M34" s="292"/>
-      <c r="N34" s="293"/>
-      <c r="O34" s="259" t="str">
+      <c r="M34" s="291"/>
+      <c r="N34" s="292"/>
+      <c r="O34" s="258" t="str">
         <f>IF(O33="","INFORMAR SE TEM DIFAL",IF(O33="SIM",(O30-(O30*O31)),"NÃO APLICÁVEL"))</f>
         <v>INFORMAR SE TEM DIFAL</v>
       </c>
-      <c r="P34" s="260"/>
-      <c r="Q34" s="261"/>
-      <c r="R34" s="262" t="str">
+      <c r="P34" s="259"/>
+      <c r="Q34" s="260"/>
+      <c r="R34" s="261" t="str">
         <f>IF(R33="","INFORMAR SE TEM DIFAL",IF(R33="SIM",(R30-(R30*R31)),"NÃO APLICÁVEL"))</f>
         <v>INFORMAR SE TEM DIFAL</v>
       </c>
-      <c r="S34" s="260"/>
-      <c r="T34" s="263"/>
-      <c r="U34" s="259" t="str">
+      <c r="S34" s="259"/>
+      <c r="T34" s="262"/>
+      <c r="U34" s="258" t="str">
         <f>IF(U33="","INFORMAR SE TEM DIFAL",IF(U33="SIM",(U30-(U30*U31)),"NÃO APLICÁVEL"))</f>
         <v>INFORMAR SE TEM DIFAL</v>
       </c>
-      <c r="V34" s="260"/>
-      <c r="W34" s="260"/>
-      <c r="X34" s="261"/>
+      <c r="V34" s="259"/>
+      <c r="W34" s="259"/>
+      <c r="X34" s="260"/>
       <c r="Y34" s="99"/>
       <c r="Z34" s="25"/>
       <c r="AC34" s="8"/>
       <c r="AD34" s="8"/>
     </row>
-    <row r="35" spans="2:30" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:30" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="9"/>
       <c r="C35" s="64"/>
-      <c r="D35" s="194" t="s">
+      <c r="D35" s="193" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="195"/>
-      <c r="F35" s="196"/>
-      <c r="G35" s="294" t="str">
+      <c r="E35" s="194"/>
+      <c r="F35" s="195"/>
+      <c r="G35" s="293" t="str">
         <f>IF(G33="SIM",(IF(G31=0,G30,G34/0.81)),G32)</f>
         <v/>
       </c>
-      <c r="H35" s="295"/>
-      <c r="I35" s="294" t="str">
+      <c r="H35" s="294"/>
+      <c r="I35" s="293" t="str">
         <f>IF(I33="SIM",(IF(I31=0,I30,I34/0.81)),I32)</f>
         <v/>
       </c>
-      <c r="J35" s="296"/>
-      <c r="K35" s="297"/>
-      <c r="L35" s="294" t="str">
+      <c r="J35" s="295"/>
+      <c r="K35" s="296"/>
+      <c r="L35" s="293" t="str">
         <f>IF(L33="SIM",(IF(L31=0,L30,L34/0.81)),L32)</f>
         <v/>
       </c>
-      <c r="M35" s="296"/>
-      <c r="N35" s="297"/>
-      <c r="O35" s="298"/>
-      <c r="P35" s="299"/>
-      <c r="Q35" s="300"/>
-      <c r="R35" s="301"/>
-      <c r="S35" s="299"/>
-      <c r="T35" s="302"/>
-      <c r="U35" s="298"/>
-      <c r="V35" s="299"/>
-      <c r="W35" s="299"/>
-      <c r="X35" s="300"/>
+      <c r="M35" s="295"/>
+      <c r="N35" s="296"/>
+      <c r="O35" s="297"/>
+      <c r="P35" s="298"/>
+      <c r="Q35" s="299"/>
+      <c r="R35" s="300"/>
+      <c r="S35" s="298"/>
+      <c r="T35" s="301"/>
+      <c r="U35" s="297"/>
+      <c r="V35" s="298"/>
+      <c r="W35" s="298"/>
+      <c r="X35" s="299"/>
       <c r="Y35" s="99"/>
       <c r="Z35" s="25"/>
       <c r="AC35" s="8"/>
       <c r="AD35" s="8"/>
     </row>
-    <row r="36" spans="2:30" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:30" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
       <c r="C36" s="64"/>
       <c r="D36" s="100"/>
@@ -10078,154 +9357,154 @@
       <c r="AC36" s="8"/>
       <c r="AD36" s="8"/>
     </row>
-    <row r="37" spans="2:30" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="9"/>
       <c r="C37" s="64"/>
-      <c r="D37" s="194" t="s">
+      <c r="D37" s="193" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="195"/>
-      <c r="F37" s="196"/>
-      <c r="G37" s="317" t="e">
+      <c r="E37" s="194"/>
+      <c r="F37" s="195"/>
+      <c r="G37" s="316" t="e">
         <f>-1+G30/G28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="318"/>
-      <c r="I37" s="314" t="e">
+      <c r="H37" s="317"/>
+      <c r="I37" s="313" t="e">
         <f>-1+I30/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J37" s="315"/>
-      <c r="K37" s="316"/>
-      <c r="L37" s="314" t="e">
+      <c r="J37" s="314"/>
+      <c r="K37" s="315"/>
+      <c r="L37" s="313" t="e">
         <f>-1+L30/L28</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M37" s="315"/>
-      <c r="N37" s="316"/>
-      <c r="O37" s="314" t="e">
+      <c r="M37" s="314"/>
+      <c r="N37" s="315"/>
+      <c r="O37" s="313" t="e">
         <f>-1+O30/O28</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P37" s="315"/>
-      <c r="Q37" s="316"/>
-      <c r="R37" s="314" t="e">
+      <c r="P37" s="314"/>
+      <c r="Q37" s="315"/>
+      <c r="R37" s="313" t="e">
         <f>-1+R30/R28</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S37" s="315"/>
-      <c r="T37" s="316"/>
-      <c r="U37" s="303" t="e">
+      <c r="S37" s="314"/>
+      <c r="T37" s="315"/>
+      <c r="U37" s="302" t="e">
         <f>-1+U30/U28</f>
         <v>#VALUE!</v>
       </c>
-      <c r="V37" s="304"/>
-      <c r="W37" s="304"/>
-      <c r="X37" s="305"/>
+      <c r="V37" s="303"/>
+      <c r="W37" s="303"/>
+      <c r="X37" s="304"/>
       <c r="Y37" s="26"/>
       <c r="Z37" s="27"/>
       <c r="AC37" s="8"/>
       <c r="AD37" s="8"/>
     </row>
-    <row r="38" spans="2:30" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>
       <c r="C38" s="64"/>
-      <c r="D38" s="194" t="s">
+      <c r="D38" s="193" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="195"/>
-      <c r="F38" s="196"/>
-      <c r="G38" s="306" t="e">
+      <c r="E38" s="194"/>
+      <c r="F38" s="195"/>
+      <c r="G38" s="305" t="e">
         <f>(G30/$H$10-1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="307"/>
-      <c r="I38" s="308" t="e">
+      <c r="H38" s="306"/>
+      <c r="I38" s="307" t="e">
         <f>(I30/$H$10-1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J38" s="309"/>
-      <c r="K38" s="310"/>
-      <c r="L38" s="308" t="e">
+      <c r="J38" s="308"/>
+      <c r="K38" s="309"/>
+      <c r="L38" s="307" t="e">
         <f>(L30/$H$10-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M38" s="309"/>
-      <c r="N38" s="310"/>
-      <c r="O38" s="308" t="e">
+      <c r="M38" s="308"/>
+      <c r="N38" s="309"/>
+      <c r="O38" s="307" t="e">
         <f>(O30/$H$10-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P38" s="309"/>
-      <c r="Q38" s="310"/>
-      <c r="R38" s="308" t="e">
+      <c r="P38" s="308"/>
+      <c r="Q38" s="309"/>
+      <c r="R38" s="307" t="e">
         <f>(R30/$H$10-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S38" s="309"/>
-      <c r="T38" s="310"/>
-      <c r="U38" s="311" t="e">
+      <c r="S38" s="308"/>
+      <c r="T38" s="309"/>
+      <c r="U38" s="310" t="e">
         <f>(U30/$H$10-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="V38" s="312"/>
-      <c r="W38" s="312"/>
-      <c r="X38" s="313"/>
+      <c r="V38" s="311"/>
+      <c r="W38" s="311"/>
+      <c r="X38" s="312"/>
       <c r="Y38" s="26"/>
       <c r="Z38" s="27"/>
       <c r="AC38" s="8"/>
       <c r="AD38" s="8"/>
     </row>
-    <row r="39" spans="2:30" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="9"/>
       <c r="C39" s="64"/>
-      <c r="D39" s="194" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="195"/>
-      <c r="F39" s="196"/>
-      <c r="G39" s="323" t="e">
+      <c r="D39" s="193" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="194"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="322" t="e">
         <f>-1+G30/$G$29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="324"/>
-      <c r="I39" s="323" t="e">
+      <c r="H39" s="323"/>
+      <c r="I39" s="322" t="e">
         <f>-1+I30/$G$29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J39" s="325"/>
-      <c r="K39" s="324"/>
-      <c r="L39" s="323" t="e">
+      <c r="J39" s="324"/>
+      <c r="K39" s="323"/>
+      <c r="L39" s="322" t="e">
         <f>-1+L30/$G$29</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M39" s="325"/>
-      <c r="N39" s="324"/>
-      <c r="O39" s="323" t="e">
+      <c r="M39" s="324"/>
+      <c r="N39" s="323"/>
+      <c r="O39" s="322" t="e">
         <f>-1+O30/$G$29</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P39" s="325"/>
-      <c r="Q39" s="324"/>
-      <c r="R39" s="323" t="e">
+      <c r="P39" s="324"/>
+      <c r="Q39" s="323"/>
+      <c r="R39" s="322" t="e">
         <f>-1+R30/$G$29</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S39" s="325"/>
-      <c r="T39" s="324"/>
-      <c r="U39" s="342" t="e">
+      <c r="S39" s="324"/>
+      <c r="T39" s="323"/>
+      <c r="U39" s="341" t="e">
         <f>-1+U30/$G$29</f>
         <v>#VALUE!</v>
       </c>
-      <c r="V39" s="343"/>
-      <c r="W39" s="343"/>
-      <c r="X39" s="344"/>
+      <c r="V39" s="342"/>
+      <c r="W39" s="342"/>
+      <c r="X39" s="343"/>
       <c r="Y39" s="26"/>
       <c r="Z39" s="27"/>
       <c r="AC39" s="8"/>
       <c r="AD39" s="8"/>
     </row>
-    <row r="40" spans="2:30" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:30" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9"/>
       <c r="C40" s="64"/>
       <c r="D40" s="100"/>
@@ -10254,238 +9533,240 @@
       <c r="AC40" s="8"/>
       <c r="AD40" s="8"/>
     </row>
-    <row r="41" spans="2:30" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:30" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="9"/>
       <c r="C41" s="64"/>
-      <c r="D41" s="240" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="241"/>
-      <c r="F41" s="242"/>
-      <c r="G41" s="322"/>
-      <c r="H41" s="233"/>
-      <c r="I41" s="322"/>
-      <c r="J41" s="232"/>
-      <c r="K41" s="233"/>
-      <c r="L41" s="322"/>
-      <c r="M41" s="232"/>
-      <c r="N41" s="233"/>
-      <c r="O41" s="322"/>
-      <c r="P41" s="232"/>
-      <c r="Q41" s="233"/>
-      <c r="R41" s="322"/>
-      <c r="S41" s="232"/>
-      <c r="T41" s="233"/>
-      <c r="U41" s="231"/>
-      <c r="V41" s="232"/>
-      <c r="W41" s="232"/>
-      <c r="X41" s="233"/>
+      <c r="D41" s="239" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="240"/>
+      <c r="F41" s="241"/>
+      <c r="G41" s="321"/>
+      <c r="H41" s="232"/>
+      <c r="I41" s="321"/>
+      <c r="J41" s="231"/>
+      <c r="K41" s="232"/>
+      <c r="L41" s="321"/>
+      <c r="M41" s="231"/>
+      <c r="N41" s="232"/>
+      <c r="O41" s="321"/>
+      <c r="P41" s="231"/>
+      <c r="Q41" s="232"/>
+      <c r="R41" s="321"/>
+      <c r="S41" s="231"/>
+      <c r="T41" s="232"/>
+      <c r="U41" s="230"/>
+      <c r="V41" s="231"/>
+      <c r="W41" s="231"/>
+      <c r="X41" s="232"/>
       <c r="Y41" s="28"/>
       <c r="Z41" s="29"/>
       <c r="AC41" s="8"/>
       <c r="AD41" s="8"/>
     </row>
-    <row r="42" spans="2:30" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9"/>
       <c r="C42" s="64"/>
-      <c r="D42" s="194" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="195"/>
-      <c r="F42" s="196"/>
-      <c r="G42" s="326"/>
-      <c r="H42" s="327"/>
-      <c r="I42" s="326"/>
-      <c r="J42" s="327"/>
-      <c r="K42" s="328"/>
-      <c r="L42" s="326"/>
-      <c r="M42" s="327"/>
-      <c r="N42" s="328"/>
-      <c r="O42" s="326"/>
-      <c r="P42" s="327"/>
-      <c r="Q42" s="328"/>
-      <c r="R42" s="223"/>
-      <c r="S42" s="224"/>
-      <c r="T42" s="225"/>
-      <c r="U42" s="223"/>
-      <c r="V42" s="224"/>
-      <c r="W42" s="224"/>
-      <c r="X42" s="225"/>
+      <c r="D42" s="193" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="194"/>
+      <c r="F42" s="195"/>
+      <c r="G42" s="325"/>
+      <c r="H42" s="326"/>
+      <c r="I42" s="325"/>
+      <c r="J42" s="326"/>
+      <c r="K42" s="327"/>
+      <c r="L42" s="325"/>
+      <c r="M42" s="326"/>
+      <c r="N42" s="327"/>
+      <c r="O42" s="325"/>
+      <c r="P42" s="326"/>
+      <c r="Q42" s="327"/>
+      <c r="R42" s="222"/>
+      <c r="S42" s="223"/>
+      <c r="T42" s="224"/>
+      <c r="U42" s="222"/>
+      <c r="V42" s="223"/>
+      <c r="W42" s="223"/>
+      <c r="X42" s="224"/>
       <c r="Y42" s="28"/>
       <c r="Z42" s="29"/>
       <c r="AC42" s="8"/>
       <c r="AD42" s="8"/>
     </row>
-    <row r="43" spans="2:30" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="9"/>
       <c r="C43" s="64"/>
-      <c r="D43" s="194" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" s="195"/>
-      <c r="F43" s="196"/>
-      <c r="G43" s="329" t="e">
+      <c r="D43" s="193" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="194"/>
+      <c r="F43" s="195"/>
+      <c r="G43" s="328" t="e">
         <f>G35+(G30*G42)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H43" s="330"/>
-      <c r="I43" s="329" t="e">
+      <c r="H43" s="329"/>
+      <c r="I43" s="328" t="e">
         <f>I35+(I30*I42)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J43" s="330"/>
-      <c r="K43" s="331"/>
-      <c r="L43" s="329" t="e">
+      <c r="J43" s="329"/>
+      <c r="K43" s="330"/>
+      <c r="L43" s="328" t="e">
         <f>L35+(L30*L42)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M43" s="330"/>
-      <c r="N43" s="331"/>
-      <c r="O43" s="332"/>
-      <c r="P43" s="333"/>
-      <c r="Q43" s="334"/>
-      <c r="R43" s="262"/>
-      <c r="S43" s="260"/>
-      <c r="T43" s="263"/>
-      <c r="U43" s="262"/>
-      <c r="V43" s="260"/>
-      <c r="W43" s="260"/>
-      <c r="X43" s="263"/>
+      <c r="M43" s="329"/>
+      <c r="N43" s="330"/>
+      <c r="O43" s="331"/>
+      <c r="P43" s="332"/>
+      <c r="Q43" s="333"/>
+      <c r="R43" s="261"/>
+      <c r="S43" s="259"/>
+      <c r="T43" s="262"/>
+      <c r="U43" s="261"/>
+      <c r="V43" s="259"/>
+      <c r="W43" s="259"/>
+      <c r="X43" s="262"/>
       <c r="Y43" s="28"/>
       <c r="Z43" s="29"/>
       <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
     </row>
-    <row r="44" spans="2:30" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9"/>
       <c r="C44" s="64"/>
-      <c r="D44" s="194" t="s">
+      <c r="D44" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="195"/>
-      <c r="F44" s="196"/>
-      <c r="G44" s="366" t="str">
+      <c r="E44" s="194"/>
+      <c r="F44" s="195"/>
+      <c r="G44" s="365" t="str">
         <f>IF(G26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="H44" s="321"/>
-      <c r="I44" s="366" t="str">
+      <c r="H44" s="320"/>
+      <c r="I44" s="365" t="str">
         <f>IF(I26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="J44" s="320"/>
-      <c r="K44" s="321"/>
-      <c r="L44" s="366" t="str">
+      <c r="J44" s="319"/>
+      <c r="K44" s="320"/>
+      <c r="L44" s="365" t="str">
         <f>IF(L26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="M44" s="320"/>
-      <c r="N44" s="321"/>
-      <c r="O44" s="319" t="str">
+      <c r="M44" s="319"/>
+      <c r="N44" s="320"/>
+      <c r="O44" s="318" t="str">
         <f>IF(O26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="P44" s="320"/>
-      <c r="Q44" s="367"/>
-      <c r="R44" s="362" t="str">
+      <c r="P44" s="319"/>
+      <c r="Q44" s="366"/>
+      <c r="R44" s="361" t="str">
         <f>IF(R26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="S44" s="320"/>
-      <c r="T44" s="363"/>
-      <c r="U44" s="319" t="str">
+      <c r="S44" s="319"/>
+      <c r="T44" s="362"/>
+      <c r="U44" s="318" t="str">
         <f>IF(U26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="V44" s="320"/>
-      <c r="W44" s="320"/>
-      <c r="X44" s="321"/>
+      <c r="V44" s="319"/>
+      <c r="W44" s="319"/>
+      <c r="X44" s="320"/>
       <c r="Y44" s="28"/>
       <c r="Z44" s="29"/>
       <c r="AC44" s="8"/>
       <c r="AD44" s="8"/>
     </row>
-    <row r="45" spans="2:30" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="9"/>
       <c r="C45" s="64"/>
-      <c r="D45" s="194" t="s">
+      <c r="D45" s="193" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="195"/>
-      <c r="F45" s="196"/>
-      <c r="G45" s="353" t="str">
+      <c r="E45" s="194"/>
+      <c r="F45" s="195"/>
+      <c r="G45" s="352" t="str">
         <f>IF(G26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="H45" s="354"/>
-      <c r="I45" s="353" t="str">
+      <c r="H45" s="353"/>
+      <c r="I45" s="352" t="str">
         <f>IF(I26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="J45" s="355"/>
-      <c r="K45" s="354"/>
-      <c r="L45" s="353" t="str">
+      <c r="J45" s="354"/>
+      <c r="K45" s="353"/>
+      <c r="L45" s="352" t="str">
         <f>IF(L26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="M45" s="355"/>
-      <c r="N45" s="354"/>
-      <c r="O45" s="356" t="str">
+      <c r="M45" s="354"/>
+      <c r="N45" s="353"/>
+      <c r="O45" s="355" t="str">
         <f>IF(O26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="P45" s="357"/>
-      <c r="Q45" s="358"/>
-      <c r="R45" s="364" t="str">
+      <c r="P45" s="356"/>
+      <c r="Q45" s="357"/>
+      <c r="R45" s="363" t="str">
         <f>IF(R26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="S45" s="360"/>
-      <c r="T45" s="365"/>
-      <c r="U45" s="359" t="str">
+      <c r="S45" s="359"/>
+      <c r="T45" s="364"/>
+      <c r="U45" s="358" t="str">
         <f>IF(U26="","","PREENCHER")</f>
         <v/>
       </c>
-      <c r="V45" s="360"/>
-      <c r="W45" s="360"/>
-      <c r="X45" s="361"/>
+      <c r="V45" s="359"/>
+      <c r="W45" s="359"/>
+      <c r="X45" s="360"/>
       <c r="Y45" s="101"/>
       <c r="Z45" s="30"/>
       <c r="AC45" s="8"/>
       <c r="AD45" s="8"/>
     </row>
-    <row r="46" spans="2:30" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9"/>
       <c r="C46" s="64"/>
-      <c r="D46" s="345" t="s">
+      <c r="D46" s="344" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="346"/>
-      <c r="F46" s="347"/>
-      <c r="G46" s="348"/>
-      <c r="H46" s="349"/>
-      <c r="I46" s="348"/>
-      <c r="J46" s="350"/>
-      <c r="K46" s="349"/>
-      <c r="L46" s="348"/>
-      <c r="M46" s="350"/>
-      <c r="N46" s="349"/>
-      <c r="O46" s="348"/>
-      <c r="P46" s="350"/>
-      <c r="Q46" s="349"/>
-      <c r="R46" s="348"/>
-      <c r="S46" s="350"/>
-      <c r="T46" s="349"/>
-      <c r="U46" s="351"/>
-      <c r="V46" s="350"/>
-      <c r="W46" s="350"/>
-      <c r="X46" s="352"/>
+      <c r="E46" s="345"/>
+      <c r="F46" s="346"/>
+      <c r="G46" s="347" t="s">
+        <v>142</v>
+      </c>
+      <c r="H46" s="348"/>
+      <c r="I46" s="347"/>
+      <c r="J46" s="349"/>
+      <c r="K46" s="348"/>
+      <c r="L46" s="347"/>
+      <c r="M46" s="349"/>
+      <c r="N46" s="348"/>
+      <c r="O46" s="347"/>
+      <c r="P46" s="349"/>
+      <c r="Q46" s="348"/>
+      <c r="R46" s="347"/>
+      <c r="S46" s="349"/>
+      <c r="T46" s="348"/>
+      <c r="U46" s="350"/>
+      <c r="V46" s="349"/>
+      <c r="W46" s="349"/>
+      <c r="X46" s="351"/>
       <c r="Y46" s="101"/>
       <c r="Z46" s="30"/>
       <c r="AC46" s="8"/>
       <c r="AD46" s="8"/>
     </row>
-    <row r="47" spans="2:30" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="115"/>
       <c r="C47" s="116"/>
       <c r="D47" s="117"/>
@@ -10514,14 +9795,14 @@
       <c r="AC47" s="122"/>
       <c r="AD47" s="122"/>
     </row>
-    <row r="48" spans="2:30" s="6" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:30" s="6" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="115"/>
       <c r="C48" s="116"/>
-      <c r="D48" s="368"/>
-      <c r="E48" s="368"/>
-      <c r="F48" s="368"/>
-      <c r="G48" s="369"/>
-      <c r="H48" s="369"/>
+      <c r="D48" s="367"/>
+      <c r="E48" s="367"/>
+      <c r="F48" s="367"/>
+      <c r="G48" s="368"/>
+      <c r="H48" s="368"/>
       <c r="I48" s="123"/>
       <c r="J48" s="123"/>
       <c r="K48" s="123"/>
@@ -10543,7 +9824,7 @@
       <c r="AC48" s="122"/>
       <c r="AD48" s="122"/>
     </row>
-    <row r="49" spans="2:40" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:40" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="115"/>
       <c r="C49" s="116"/>
       <c r="D49" s="127"/>
@@ -10551,26 +9832,26 @@
       <c r="F49" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="G49" s="186"/>
-      <c r="H49" s="370" t="s">
+      <c r="G49" s="185"/>
+      <c r="H49" s="369" t="s">
         <v>11</v>
       </c>
-      <c r="I49" s="370"/>
+      <c r="I49" s="369"/>
       <c r="J49" s="128"/>
-      <c r="K49" s="186"/>
-      <c r="L49" s="371" t="s">
+      <c r="K49" s="185"/>
+      <c r="L49" s="370" t="s">
         <v>10</v>
       </c>
-      <c r="M49" s="371"/>
-      <c r="N49" s="371"/>
-      <c r="O49" s="187"/>
+      <c r="M49" s="370"/>
+      <c r="N49" s="370"/>
+      <c r="O49" s="186"/>
       <c r="P49" s="129"/>
-      <c r="Q49" s="371" t="s">
+      <c r="Q49" s="370" t="s">
         <v>12</v>
       </c>
-      <c r="R49" s="371"/>
+      <c r="R49" s="370"/>
       <c r="S49" s="129"/>
-      <c r="T49" s="186"/>
+      <c r="T49" s="185"/>
       <c r="U49" s="130"/>
       <c r="V49" s="130"/>
       <c r="W49" s="130"/>
@@ -10590,7 +9871,7 @@
       <c r="AK49" s="7"/>
       <c r="AN49"/>
     </row>
-    <row r="50" spans="2:40" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:40" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="115"/>
       <c r="C50" s="116"/>
       <c r="D50" s="123"/>
@@ -10608,12 +9889,12 @@
       <c r="P50" s="124"/>
       <c r="Q50" s="124"/>
       <c r="R50" s="131"/>
-      <c r="S50" s="372"/>
-      <c r="T50" s="372"/>
-      <c r="U50" s="372"/>
-      <c r="V50" s="372"/>
-      <c r="W50" s="372"/>
-      <c r="X50" s="372"/>
+      <c r="S50" s="371"/>
+      <c r="T50" s="371"/>
+      <c r="U50" s="371"/>
+      <c r="V50" s="371"/>
+      <c r="W50" s="371"/>
+      <c r="X50" s="371"/>
       <c r="Y50" s="134"/>
       <c r="Z50" s="121"/>
       <c r="AC50" s="122"/>
@@ -10622,36 +9903,31 @@
     <row r="51" spans="2:40" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="115"/>
       <c r="C51" s="116"/>
-      <c r="D51" s="135" t="s">
-        <v>37</v>
-      </c>
-      <c r="E51" s="127"/>
-      <c r="F51" s="132"/>
-      <c r="G51" s="132"/>
-      <c r="H51" s="373" t="s">
-        <v>41</v>
-      </c>
-      <c r="I51" s="132"/>
+      <c r="D51" s="428" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="428"/>
+      <c r="F51" s="428"/>
+      <c r="G51" s="428"/>
+      <c r="H51" s="428"/>
+      <c r="I51" s="428"/>
       <c r="J51" s="132"/>
       <c r="K51" s="132"/>
-      <c r="L51" s="370" t="s">
-        <v>38</v>
-      </c>
-      <c r="M51" s="370"/>
-      <c r="N51" s="370"/>
-      <c r="O51" s="374" t="str">
-        <f>"Foram consultados os fornecedores da categoria de fornecimento." &amp; G26 &amp; "  " &amp; I26 &amp; "  "  &amp; L26 &amp; "   " &amp; O26 &amp; "  " &amp;  R26 &amp; "  " &amp;  U26</f>
-        <v xml:space="preserve">Foram consultados os fornecedores da categoria de fornecimento.           </v>
-      </c>
-      <c r="P51" s="375"/>
-      <c r="Q51" s="375"/>
-      <c r="R51" s="375"/>
-      <c r="S51" s="375"/>
-      <c r="T51" s="375"/>
-      <c r="U51" s="375"/>
-      <c r="V51" s="375"/>
-      <c r="W51" s="375"/>
-      <c r="X51" s="376"/>
+      <c r="L51" s="369" t="s">
+        <v>37</v>
+      </c>
+      <c r="M51" s="369"/>
+      <c r="N51" s="369"/>
+      <c r="O51" s="418"/>
+      <c r="P51" s="419"/>
+      <c r="Q51" s="419"/>
+      <c r="R51" s="419"/>
+      <c r="S51" s="419"/>
+      <c r="T51" s="419"/>
+      <c r="U51" s="419"/>
+      <c r="V51" s="419"/>
+      <c r="W51" s="419"/>
+      <c r="X51" s="421"/>
       <c r="Y51" s="126"/>
       <c r="Z51" s="10"/>
       <c r="AA51" s="3"/>
@@ -10667,250 +9943,252 @@
       <c r="AK51" s="7"/>
       <c r="AN51"/>
     </row>
-    <row r="52" spans="2:40" s="6" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:40" s="6" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="115"/>
-      <c r="C52" s="136"/>
-      <c r="D52" s="137" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" s="138"/>
-      <c r="F52" s="188"/>
+      <c r="C52" s="135"/>
+      <c r="D52" s="136" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="137"/>
+      <c r="F52" s="184" t="s">
+        <v>0</v>
+      </c>
       <c r="G52" s="132"/>
-      <c r="H52" s="373"/>
-      <c r="I52" s="139"/>
-      <c r="J52" s="139"/>
-      <c r="K52" s="139"/>
-      <c r="L52" s="370"/>
-      <c r="M52" s="370"/>
-      <c r="N52" s="370"/>
-      <c r="O52" s="377"/>
-      <c r="P52" s="378"/>
-      <c r="Q52" s="378"/>
-      <c r="R52" s="378"/>
-      <c r="S52" s="378"/>
-      <c r="T52" s="378"/>
-      <c r="U52" s="378"/>
-      <c r="V52" s="378"/>
-      <c r="W52" s="378"/>
-      <c r="X52" s="379"/>
-      <c r="Y52" s="140"/>
-      <c r="Z52" s="141"/>
+      <c r="H52" s="136" t="s">
+        <v>144</v>
+      </c>
+      <c r="I52" s="427"/>
+      <c r="J52" s="138"/>
+      <c r="K52" s="138"/>
+      <c r="L52" s="369"/>
+      <c r="M52" s="369"/>
+      <c r="N52" s="369"/>
+      <c r="O52" s="422"/>
+      <c r="P52" s="420"/>
+      <c r="Q52" s="420"/>
+      <c r="R52" s="420"/>
+      <c r="S52" s="420"/>
+      <c r="T52" s="420"/>
+      <c r="U52" s="420"/>
+      <c r="V52" s="420"/>
+      <c r="W52" s="420"/>
+      <c r="X52" s="423"/>
+      <c r="Y52" s="139"/>
+      <c r="Z52" s="140"/>
       <c r="AC52" s="122"/>
       <c r="AD52" s="122"/>
     </row>
-    <row r="53" spans="2:40" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:40" s="6" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="115"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="142"/>
-      <c r="E53" s="143"/>
-      <c r="F53" s="132"/>
+      <c r="C53" s="135"/>
+      <c r="D53" s="136" t="s">
+        <v>146</v>
+      </c>
+      <c r="E53" s="137"/>
+      <c r="F53" s="184" t="s">
+        <v>0</v>
+      </c>
       <c r="G53" s="132"/>
-      <c r="H53" s="132"/>
-      <c r="I53" s="132"/>
-      <c r="J53" s="132"/>
-      <c r="K53" s="132"/>
-      <c r="L53" s="132"/>
-      <c r="M53" s="132"/>
-      <c r="N53" s="132"/>
-      <c r="O53" s="144"/>
-      <c r="P53" s="144"/>
-      <c r="Q53" s="144"/>
-      <c r="R53" s="132"/>
-      <c r="S53" s="126"/>
-      <c r="T53" s="126"/>
-      <c r="U53" s="126"/>
-      <c r="V53" s="126"/>
-      <c r="W53" s="126"/>
-      <c r="X53" s="126"/>
-      <c r="Y53" s="126"/>
-      <c r="Z53" s="10"/>
-      <c r="AA53" s="3"/>
-      <c r="AB53" s="3"/>
-      <c r="AC53" s="3"/>
-      <c r="AD53" s="3"/>
-      <c r="AE53" s="3"/>
-      <c r="AF53" s="3"/>
-      <c r="AG53" s="4"/>
-      <c r="AH53" s="7"/>
-      <c r="AI53" s="7"/>
-      <c r="AJ53" s="7"/>
-      <c r="AK53" s="7"/>
-      <c r="AN53"/>
-    </row>
-    <row r="54" spans="2:40" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H53" s="136" t="s">
+        <v>148</v>
+      </c>
+      <c r="I53" s="427"/>
+      <c r="J53" s="138"/>
+      <c r="K53" s="138"/>
+      <c r="L53" s="128"/>
+      <c r="M53" s="128"/>
+      <c r="N53" s="128"/>
+      <c r="O53" s="422"/>
+      <c r="P53" s="420"/>
+      <c r="Q53" s="420"/>
+      <c r="R53" s="420"/>
+      <c r="S53" s="420"/>
+      <c r="T53" s="420"/>
+      <c r="U53" s="420"/>
+      <c r="V53" s="420"/>
+      <c r="W53" s="420"/>
+      <c r="X53" s="423"/>
+      <c r="Y53" s="139"/>
+      <c r="Z53" s="140"/>
+      <c r="AC53" s="122"/>
+      <c r="AD53" s="122"/>
+    </row>
+    <row r="54" spans="2:40" s="6" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="115"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="128" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="143"/>
-      <c r="F54" s="398"/>
-      <c r="G54" s="386"/>
-      <c r="H54" s="370" t="s">
-        <v>16</v>
-      </c>
-      <c r="I54" s="370"/>
-      <c r="J54" s="128"/>
-      <c r="K54" s="185" t="s">
+      <c r="C54" s="135"/>
+      <c r="D54" s="136" t="s">
+        <v>145</v>
+      </c>
+      <c r="E54" s="137"/>
+      <c r="F54" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="L54" s="370" t="s">
-        <v>23</v>
-      </c>
-      <c r="M54" s="370"/>
-      <c r="N54" s="370"/>
-      <c r="O54" s="399"/>
-      <c r="P54" s="400"/>
-      <c r="Q54" s="400"/>
-      <c r="R54" s="401"/>
-      <c r="S54" s="370" t="s">
-        <v>42</v>
-      </c>
-      <c r="T54" s="370"/>
-      <c r="U54" s="399"/>
-      <c r="V54" s="400"/>
-      <c r="W54" s="400"/>
-      <c r="X54" s="401"/>
-      <c r="Y54" s="140"/>
-      <c r="Z54" s="10"/>
-      <c r="AA54" s="3"/>
-      <c r="AB54" s="3"/>
-      <c r="AC54" s="3"/>
-      <c r="AD54" s="3"/>
-      <c r="AE54" s="3"/>
-      <c r="AF54" s="3"/>
-      <c r="AG54" s="4"/>
-      <c r="AH54" s="7"/>
-      <c r="AI54" s="7"/>
-      <c r="AJ54" s="7"/>
-      <c r="AK54" s="7"/>
-      <c r="AN54"/>
-    </row>
-    <row r="55" spans="2:40" s="6" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="132"/>
+      <c r="H54" s="187" t="s">
+        <v>147</v>
+      </c>
+      <c r="I54" s="427"/>
+      <c r="J54" s="138"/>
+      <c r="K54" s="138"/>
+      <c r="L54" s="128"/>
+      <c r="M54" s="128"/>
+      <c r="N54" s="128"/>
+      <c r="O54" s="424"/>
+      <c r="P54" s="425"/>
+      <c r="Q54" s="425"/>
+      <c r="R54" s="425"/>
+      <c r="S54" s="425"/>
+      <c r="T54" s="425"/>
+      <c r="U54" s="425"/>
+      <c r="V54" s="425"/>
+      <c r="W54" s="425"/>
+      <c r="X54" s="426"/>
+      <c r="Y54" s="139"/>
+      <c r="Z54" s="140"/>
+      <c r="AC54" s="122"/>
+      <c r="AD54" s="122"/>
+    </row>
+    <row r="55" spans="2:40" s="6" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="115"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="142"/>
-      <c r="E55" s="143"/>
-      <c r="F55" s="132"/>
+      <c r="C55" s="135"/>
+      <c r="D55" s="136"/>
+      <c r="E55" s="137"/>
+      <c r="F55" s="187"/>
       <c r="G55" s="132"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="132"/>
-      <c r="J55" s="132"/>
-      <c r="K55" s="132"/>
-      <c r="L55" s="132"/>
-      <c r="M55" s="132"/>
-      <c r="N55" s="132"/>
-      <c r="O55" s="144"/>
-      <c r="P55" s="144"/>
-      <c r="Q55" s="144"/>
-      <c r="R55" s="132"/>
-      <c r="S55" s="126"/>
-      <c r="T55" s="126"/>
-      <c r="U55" s="126"/>
-      <c r="V55" s="126"/>
-      <c r="W55" s="126"/>
-      <c r="X55" s="126"/>
-      <c r="Y55" s="126"/>
-      <c r="Z55" s="10"/>
-      <c r="AA55" s="3"/>
-      <c r="AB55" s="3"/>
-      <c r="AC55" s="3"/>
-      <c r="AD55" s="3"/>
-      <c r="AE55" s="3"/>
-      <c r="AF55" s="3"/>
-      <c r="AG55" s="4"/>
-      <c r="AH55" s="7"/>
-      <c r="AI55" s="7"/>
-      <c r="AJ55" s="7"/>
-      <c r="AK55" s="7"/>
-      <c r="AN55"/>
-    </row>
-    <row r="56" spans="2:40" s="6" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H55" s="187"/>
+      <c r="I55" s="417"/>
+      <c r="J55" s="138"/>
+      <c r="K55" s="138"/>
+      <c r="L55" s="128"/>
+      <c r="M55" s="128"/>
+      <c r="N55" s="128"/>
+      <c r="O55" s="128"/>
+      <c r="P55" s="128"/>
+      <c r="Q55" s="128"/>
+      <c r="R55" s="128"/>
+      <c r="S55" s="128"/>
+      <c r="T55" s="128"/>
+      <c r="U55" s="128"/>
+      <c r="V55" s="128"/>
+      <c r="W55" s="128"/>
+      <c r="X55" s="128"/>
+      <c r="Y55" s="139"/>
+      <c r="Z55" s="140"/>
+      <c r="AC55" s="122"/>
+      <c r="AD55" s="122"/>
+    </row>
+    <row r="56" spans="2:40" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="115"/>
       <c r="C56" s="116"/>
-      <c r="D56" s="371" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="145"/>
-      <c r="F56" s="374" t="s">
-        <v>145</v>
-      </c>
-      <c r="G56" s="375"/>
-      <c r="H56" s="375"/>
-      <c r="I56" s="375"/>
-      <c r="J56" s="375"/>
-      <c r="K56" s="375"/>
-      <c r="L56" s="375"/>
-      <c r="M56" s="375"/>
-      <c r="N56" s="375"/>
-      <c r="O56" s="375"/>
-      <c r="P56" s="375"/>
-      <c r="Q56" s="375"/>
-      <c r="R56" s="375"/>
-      <c r="S56" s="375"/>
-      <c r="T56" s="375"/>
-      <c r="U56" s="375"/>
-      <c r="V56" s="375"/>
-      <c r="W56" s="375"/>
-      <c r="X56" s="376"/>
-      <c r="Y56" s="140"/>
-      <c r="Z56" s="141"/>
-      <c r="AC56" s="122"/>
-      <c r="AD56" s="122"/>
-    </row>
-    <row r="57" spans="2:40" s="6" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D56" s="141"/>
+      <c r="E56" s="142"/>
+      <c r="F56" s="132"/>
+      <c r="G56" s="132"/>
+      <c r="H56" s="132"/>
+      <c r="I56" s="132"/>
+      <c r="J56" s="132"/>
+      <c r="K56" s="132"/>
+      <c r="L56" s="132"/>
+      <c r="M56" s="132"/>
+      <c r="N56" s="132"/>
+      <c r="O56" s="143"/>
+      <c r="P56" s="143"/>
+      <c r="Q56" s="143"/>
+      <c r="R56" s="132"/>
+      <c r="S56" s="126"/>
+      <c r="T56" s="126"/>
+      <c r="U56" s="126"/>
+      <c r="V56" s="126"/>
+      <c r="W56" s="126"/>
+      <c r="X56" s="126"/>
+      <c r="Y56" s="126"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+      <c r="AG56" s="4"/>
+      <c r="AH56" s="7"/>
+      <c r="AI56" s="7"/>
+      <c r="AJ56" s="7"/>
+      <c r="AK56" s="7"/>
+      <c r="AN56"/>
+    </row>
+    <row r="57" spans="2:40" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="115"/>
       <c r="C57" s="116"/>
-      <c r="D57" s="371"/>
-      <c r="E57" s="145"/>
-      <c r="F57" s="377"/>
-      <c r="G57" s="378"/>
-      <c r="H57" s="378"/>
-      <c r="I57" s="378"/>
-      <c r="J57" s="378"/>
-      <c r="K57" s="378"/>
-      <c r="L57" s="378"/>
-      <c r="M57" s="378"/>
-      <c r="N57" s="378"/>
-      <c r="O57" s="378"/>
-      <c r="P57" s="378"/>
-      <c r="Q57" s="378"/>
-      <c r="R57" s="378"/>
-      <c r="S57" s="378"/>
-      <c r="T57" s="378"/>
-      <c r="U57" s="378"/>
-      <c r="V57" s="378"/>
-      <c r="W57" s="378"/>
-      <c r="X57" s="379"/>
-      <c r="Y57" s="140"/>
-      <c r="Z57" s="141"/>
-      <c r="AC57" s="122"/>
-      <c r="AD57" s="122"/>
-    </row>
-    <row r="58" spans="2:40" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="128" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="142"/>
+      <c r="F57" s="396"/>
+      <c r="G57" s="384"/>
+      <c r="H57" s="369" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="369"/>
+      <c r="J57" s="128"/>
+      <c r="K57" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="L57" s="369" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57" s="369"/>
+      <c r="N57" s="369"/>
+      <c r="O57" s="397"/>
+      <c r="P57" s="398"/>
+      <c r="Q57" s="398"/>
+      <c r="R57" s="399"/>
+      <c r="S57" s="369" t="s">
+        <v>39</v>
+      </c>
+      <c r="T57" s="369"/>
+      <c r="U57" s="397"/>
+      <c r="V57" s="398"/>
+      <c r="W57" s="398"/>
+      <c r="X57" s="399"/>
+      <c r="Y57" s="139"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
+      <c r="AG57" s="4"/>
+      <c r="AH57" s="7"/>
+      <c r="AI57" s="7"/>
+      <c r="AJ57" s="7"/>
+      <c r="AK57" s="7"/>
+      <c r="AN57"/>
+    </row>
+    <row r="58" spans="2:40" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="115"/>
       <c r="C58" s="116"/>
-      <c r="D58" s="142"/>
-      <c r="E58" s="143"/>
-      <c r="F58" s="146"/>
-      <c r="G58" s="146"/>
-      <c r="H58" s="146"/>
-      <c r="I58" s="146"/>
-      <c r="J58" s="146"/>
-      <c r="K58" s="146"/>
-      <c r="L58" s="146"/>
-      <c r="M58" s="146"/>
-      <c r="N58" s="146"/>
-      <c r="O58" s="147"/>
-      <c r="P58" s="147"/>
-      <c r="Q58" s="147"/>
-      <c r="R58" s="146"/>
-      <c r="S58" s="148"/>
-      <c r="T58" s="148"/>
-      <c r="U58" s="148"/>
-      <c r="V58" s="148"/>
-      <c r="W58" s="148"/>
-      <c r="X58" s="148"/>
+      <c r="D58" s="141"/>
+      <c r="E58" s="142"/>
+      <c r="F58" s="132"/>
+      <c r="G58" s="132"/>
+      <c r="H58" s="132"/>
+      <c r="I58" s="132"/>
+      <c r="J58" s="132"/>
+      <c r="K58" s="132"/>
+      <c r="L58" s="132"/>
+      <c r="M58" s="132"/>
+      <c r="N58" s="132"/>
+      <c r="O58" s="143"/>
+      <c r="P58" s="143"/>
+      <c r="Q58" s="143"/>
+      <c r="R58" s="132"/>
+      <c r="S58" s="126"/>
+      <c r="T58" s="126"/>
+      <c r="U58" s="126"/>
+      <c r="V58" s="126"/>
+      <c r="W58" s="126"/>
+      <c r="X58" s="126"/>
       <c r="Y58" s="126"/>
       <c r="Z58" s="10"/>
       <c r="AA58" s="3"/>
@@ -10926,260 +10204,249 @@
       <c r="AK58" s="7"/>
       <c r="AN58"/>
     </row>
-    <row r="59" spans="2:40" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:40" s="6" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="115"/>
       <c r="C59" s="116"/>
-      <c r="D59" s="371" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="145"/>
-      <c r="F59" s="374"/>
-      <c r="G59" s="375"/>
-      <c r="H59" s="375"/>
-      <c r="I59" s="375"/>
-      <c r="J59" s="375"/>
-      <c r="K59" s="375"/>
-      <c r="L59" s="375"/>
-      <c r="M59" s="375"/>
-      <c r="N59" s="375"/>
-      <c r="O59" s="375"/>
-      <c r="P59" s="375"/>
-      <c r="Q59" s="375"/>
-      <c r="R59" s="375"/>
-      <c r="S59" s="375"/>
-      <c r="T59" s="375"/>
-      <c r="U59" s="375"/>
-      <c r="V59" s="375"/>
-      <c r="W59" s="375"/>
-      <c r="X59" s="376"/>
-      <c r="Y59" s="140"/>
-      <c r="Z59" s="149"/>
+      <c r="D59" s="370" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="144"/>
+      <c r="F59" s="372"/>
+      <c r="G59" s="373"/>
+      <c r="H59" s="373"/>
+      <c r="I59" s="373"/>
+      <c r="J59" s="373"/>
+      <c r="K59" s="373"/>
+      <c r="L59" s="373"/>
+      <c r="M59" s="373"/>
+      <c r="N59" s="373"/>
+      <c r="O59" s="373"/>
+      <c r="P59" s="373"/>
+      <c r="Q59" s="373"/>
+      <c r="R59" s="373"/>
+      <c r="S59" s="373"/>
+      <c r="T59" s="373"/>
+      <c r="U59" s="373"/>
+      <c r="V59" s="373"/>
+      <c r="W59" s="373"/>
+      <c r="X59" s="374"/>
+      <c r="Y59" s="139"/>
+      <c r="Z59" s="140"/>
       <c r="AC59" s="122"/>
       <c r="AD59" s="122"/>
     </row>
-    <row r="60" spans="2:40" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:40" s="6" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="115"/>
       <c r="C60" s="116"/>
-      <c r="D60" s="371"/>
-      <c r="E60" s="145"/>
-      <c r="F60" s="377"/>
-      <c r="G60" s="378"/>
-      <c r="H60" s="378"/>
-      <c r="I60" s="378"/>
-      <c r="J60" s="378"/>
-      <c r="K60" s="378"/>
-      <c r="L60" s="378"/>
-      <c r="M60" s="378"/>
-      <c r="N60" s="378"/>
-      <c r="O60" s="378"/>
-      <c r="P60" s="378"/>
-      <c r="Q60" s="378"/>
-      <c r="R60" s="378"/>
-      <c r="S60" s="378"/>
-      <c r="T60" s="378"/>
-      <c r="U60" s="378"/>
-      <c r="V60" s="378"/>
-      <c r="W60" s="378"/>
-      <c r="X60" s="379"/>
-      <c r="Y60" s="140"/>
-      <c r="Z60" s="149"/>
+      <c r="D60" s="370"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="375"/>
+      <c r="G60" s="376"/>
+      <c r="H60" s="376"/>
+      <c r="I60" s="376"/>
+      <c r="J60" s="376"/>
+      <c r="K60" s="376"/>
+      <c r="L60" s="376"/>
+      <c r="M60" s="376"/>
+      <c r="N60" s="376"/>
+      <c r="O60" s="376"/>
+      <c r="P60" s="376"/>
+      <c r="Q60" s="376"/>
+      <c r="R60" s="376"/>
+      <c r="S60" s="376"/>
+      <c r="T60" s="376"/>
+      <c r="U60" s="376"/>
+      <c r="V60" s="376"/>
+      <c r="W60" s="376"/>
+      <c r="X60" s="377"/>
+      <c r="Y60" s="139"/>
+      <c r="Z60" s="140"/>
       <c r="AC60" s="122"/>
       <c r="AD60" s="122"/>
     </row>
-    <row r="61" spans="2:40" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:40" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="115"/>
       <c r="C61" s="116"/>
-      <c r="D61" s="142"/>
-      <c r="E61" s="143"/>
-      <c r="F61" s="132"/>
-      <c r="G61" s="132"/>
-      <c r="H61" s="132"/>
-      <c r="I61" s="132"/>
-      <c r="J61" s="132"/>
-      <c r="K61" s="132"/>
-      <c r="L61" s="132"/>
-      <c r="M61" s="150"/>
-      <c r="N61" s="150"/>
-      <c r="O61" s="132"/>
-      <c r="P61" s="126"/>
-      <c r="Q61" s="126"/>
-      <c r="R61" s="126"/>
-      <c r="S61" s="126"/>
-      <c r="T61" s="126"/>
-      <c r="U61" s="126"/>
-      <c r="V61" s="126"/>
-      <c r="W61" s="126"/>
-      <c r="X61" s="126"/>
-      <c r="Y61" s="140"/>
-      <c r="Z61" s="149"/>
-      <c r="AA61" s="7"/>
-      <c r="AD61"/>
-    </row>
-    <row r="62" spans="2:40" s="6" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D61" s="141"/>
+      <c r="E61" s="142"/>
+      <c r="F61" s="145"/>
+      <c r="G61" s="145"/>
+      <c r="H61" s="145"/>
+      <c r="I61" s="145"/>
+      <c r="J61" s="145"/>
+      <c r="K61" s="145"/>
+      <c r="L61" s="145"/>
+      <c r="M61" s="145"/>
+      <c r="N61" s="145"/>
+      <c r="O61" s="146"/>
+      <c r="P61" s="146"/>
+      <c r="Q61" s="146"/>
+      <c r="R61" s="145"/>
+      <c r="S61" s="147"/>
+      <c r="T61" s="147"/>
+      <c r="U61" s="147"/>
+      <c r="V61" s="147"/>
+      <c r="W61" s="147"/>
+      <c r="X61" s="147"/>
+      <c r="Y61" s="126"/>
+      <c r="Z61" s="10"/>
+      <c r="AA61" s="3"/>
+      <c r="AB61" s="3"/>
+      <c r="AC61" s="3"/>
+      <c r="AD61" s="3"/>
+      <c r="AE61" s="3"/>
+      <c r="AF61" s="3"/>
+      <c r="AG61" s="4"/>
+      <c r="AH61" s="7"/>
+      <c r="AI61" s="7"/>
+      <c r="AJ61" s="7"/>
+      <c r="AK61" s="7"/>
+      <c r="AN61"/>
+    </row>
+    <row r="62" spans="2:40" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="115"/>
       <c r="C62" s="116"/>
-      <c r="D62" s="137" t="s">
-        <v>126</v>
-      </c>
-      <c r="E62" s="145"/>
-      <c r="F62" s="402"/>
-      <c r="G62" s="403"/>
-      <c r="H62" s="403"/>
-      <c r="I62" s="403"/>
-      <c r="J62" s="403"/>
-      <c r="K62" s="403"/>
-      <c r="L62" s="403"/>
-      <c r="M62" s="403"/>
-      <c r="N62" s="403"/>
-      <c r="O62" s="403"/>
-      <c r="P62" s="403"/>
-      <c r="Q62" s="403"/>
-      <c r="R62" s="403"/>
-      <c r="S62" s="403"/>
-      <c r="T62" s="403"/>
-      <c r="U62" s="403"/>
-      <c r="V62" s="403"/>
-      <c r="W62" s="403"/>
-      <c r="X62" s="404"/>
-      <c r="Y62" s="140"/>
-      <c r="Z62" s="149"/>
-    </row>
-    <row r="63" spans="2:40" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D62" s="370" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="144"/>
+      <c r="F62" s="372"/>
+      <c r="G62" s="373"/>
+      <c r="H62" s="373"/>
+      <c r="I62" s="373"/>
+      <c r="J62" s="373"/>
+      <c r="K62" s="373"/>
+      <c r="L62" s="373"/>
+      <c r="M62" s="373"/>
+      <c r="N62" s="373"/>
+      <c r="O62" s="373"/>
+      <c r="P62" s="373"/>
+      <c r="Q62" s="373"/>
+      <c r="R62" s="373"/>
+      <c r="S62" s="373"/>
+      <c r="T62" s="373"/>
+      <c r="U62" s="373"/>
+      <c r="V62" s="373"/>
+      <c r="W62" s="373"/>
+      <c r="X62" s="374"/>
+      <c r="Y62" s="139"/>
+      <c r="Z62" s="148"/>
+      <c r="AC62" s="122"/>
+      <c r="AD62" s="122"/>
+    </row>
+    <row r="63" spans="2:40" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="115"/>
       <c r="C63" s="116"/>
-      <c r="D63" s="142"/>
-      <c r="E63" s="143"/>
-      <c r="F63" s="146"/>
-      <c r="G63" s="146"/>
-      <c r="H63" s="146"/>
-      <c r="I63" s="146"/>
-      <c r="J63" s="146"/>
-      <c r="K63" s="146"/>
-      <c r="L63" s="146"/>
-      <c r="M63" s="146"/>
-      <c r="N63" s="146"/>
-      <c r="O63" s="147"/>
-      <c r="P63" s="147"/>
-      <c r="Q63" s="147"/>
-      <c r="R63" s="146"/>
-      <c r="S63" s="148"/>
-      <c r="T63" s="148"/>
-      <c r="U63" s="148"/>
-      <c r="V63" s="148"/>
-      <c r="W63" s="148"/>
-      <c r="X63" s="148"/>
-      <c r="Y63" s="126"/>
-      <c r="Z63" s="149"/>
-      <c r="AA63" s="3"/>
-      <c r="AB63" s="3"/>
-      <c r="AC63" s="3"/>
-      <c r="AD63" s="3"/>
-      <c r="AE63" s="3"/>
-      <c r="AF63" s="3"/>
-      <c r="AG63" s="4"/>
-      <c r="AH63" s="7"/>
-      <c r="AI63" s="7"/>
-      <c r="AJ63" s="7"/>
-      <c r="AK63" s="7"/>
-      <c r="AN63"/>
-    </row>
-    <row r="64" spans="2:40" s="6" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="370"/>
+      <c r="E63" s="144"/>
+      <c r="F63" s="375"/>
+      <c r="G63" s="376"/>
+      <c r="H63" s="376"/>
+      <c r="I63" s="376"/>
+      <c r="J63" s="376"/>
+      <c r="K63" s="376"/>
+      <c r="L63" s="376"/>
+      <c r="M63" s="376"/>
+      <c r="N63" s="376"/>
+      <c r="O63" s="376"/>
+      <c r="P63" s="376"/>
+      <c r="Q63" s="376"/>
+      <c r="R63" s="376"/>
+      <c r="S63" s="376"/>
+      <c r="T63" s="376"/>
+      <c r="U63" s="376"/>
+      <c r="V63" s="376"/>
+      <c r="W63" s="376"/>
+      <c r="X63" s="377"/>
+      <c r="Y63" s="139"/>
+      <c r="Z63" s="148"/>
+      <c r="AC63" s="122"/>
+      <c r="AD63" s="122"/>
+    </row>
+    <row r="64" spans="2:40" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="115"/>
       <c r="C64" s="116"/>
-      <c r="D64" s="371" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" s="143"/>
-      <c r="F64" s="374" t="str">
-        <f>"Submete-se esse processo para aquisição junto ao fornecedor " &amp; F69 &amp; ", visto que fornecimento apresentou melhor proposta e prazo de entrega."</f>
-        <v>Submete-se esse processo para aquisição junto ao fornecedor , visto que fornecimento apresentou melhor proposta e prazo de entrega.</v>
-      </c>
-      <c r="G64" s="375"/>
-      <c r="H64" s="375"/>
-      <c r="I64" s="375"/>
-      <c r="J64" s="375"/>
-      <c r="K64" s="375"/>
-      <c r="L64" s="375"/>
-      <c r="M64" s="375"/>
-      <c r="N64" s="375"/>
-      <c r="O64" s="375"/>
-      <c r="P64" s="375"/>
-      <c r="Q64" s="375"/>
-      <c r="R64" s="375"/>
-      <c r="S64" s="375"/>
-      <c r="T64" s="375"/>
-      <c r="U64" s="375"/>
-      <c r="V64" s="375"/>
-      <c r="W64" s="375"/>
-      <c r="X64" s="376"/>
-      <c r="Y64" s="126"/>
-      <c r="Z64" s="149"/>
-      <c r="AA64" s="3"/>
-      <c r="AB64" s="3"/>
-      <c r="AC64" s="3"/>
-      <c r="AD64" s="3"/>
-      <c r="AE64" s="3"/>
-      <c r="AF64" s="3"/>
-      <c r="AG64" s="4"/>
-      <c r="AH64" s="7"/>
-      <c r="AI64" s="7"/>
-      <c r="AJ64" s="7"/>
-      <c r="AK64" s="7"/>
-      <c r="AN64"/>
-    </row>
-    <row r="65" spans="2:40" s="122" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="151"/>
-      <c r="C65" s="152"/>
-      <c r="D65" s="371"/>
-      <c r="E65" s="153"/>
-      <c r="F65" s="377"/>
-      <c r="G65" s="378"/>
-      <c r="H65" s="378"/>
-      <c r="I65" s="378"/>
-      <c r="J65" s="378"/>
-      <c r="K65" s="378"/>
-      <c r="L65" s="378"/>
-      <c r="M65" s="378"/>
-      <c r="N65" s="378"/>
-      <c r="O65" s="378"/>
-      <c r="P65" s="378"/>
-      <c r="Q65" s="378"/>
-      <c r="R65" s="378"/>
-      <c r="S65" s="378"/>
-      <c r="T65" s="378"/>
-      <c r="U65" s="378"/>
-      <c r="V65" s="378"/>
-      <c r="W65" s="378"/>
-      <c r="X65" s="379"/>
-      <c r="Y65" s="140"/>
-      <c r="Z65" s="149"/>
-    </row>
-    <row r="66" spans="2:40" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="141"/>
+      <c r="E64" s="142"/>
+      <c r="F64" s="132"/>
+      <c r="G64" s="132"/>
+      <c r="H64" s="132"/>
+      <c r="I64" s="132"/>
+      <c r="J64" s="132"/>
+      <c r="K64" s="132"/>
+      <c r="L64" s="132"/>
+      <c r="M64" s="149"/>
+      <c r="N64" s="149"/>
+      <c r="O64" s="132"/>
+      <c r="P64" s="126"/>
+      <c r="Q64" s="126"/>
+      <c r="R64" s="126"/>
+      <c r="S64" s="126"/>
+      <c r="T64" s="126"/>
+      <c r="U64" s="126"/>
+      <c r="V64" s="126"/>
+      <c r="W64" s="126"/>
+      <c r="X64" s="126"/>
+      <c r="Y64" s="139"/>
+      <c r="Z64" s="148"/>
+      <c r="AA64" s="7"/>
+      <c r="AD64"/>
+    </row>
+    <row r="65" spans="2:40" s="6" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="115"/>
+      <c r="C65" s="116"/>
+      <c r="D65" s="136" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65" s="144"/>
+      <c r="F65" s="400"/>
+      <c r="G65" s="401"/>
+      <c r="H65" s="401"/>
+      <c r="I65" s="401"/>
+      <c r="J65" s="401"/>
+      <c r="K65" s="401"/>
+      <c r="L65" s="401"/>
+      <c r="M65" s="401"/>
+      <c r="N65" s="401"/>
+      <c r="O65" s="401"/>
+      <c r="P65" s="401"/>
+      <c r="Q65" s="401"/>
+      <c r="R65" s="401"/>
+      <c r="S65" s="401"/>
+      <c r="T65" s="401"/>
+      <c r="U65" s="401"/>
+      <c r="V65" s="401"/>
+      <c r="W65" s="401"/>
+      <c r="X65" s="402"/>
+      <c r="Y65" s="139"/>
+      <c r="Z65" s="148"/>
+    </row>
+    <row r="66" spans="2:40" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="115"/>
       <c r="C66" s="116"/>
-      <c r="D66" s="142"/>
-      <c r="E66" s="143"/>
-      <c r="F66" s="132"/>
-      <c r="G66" s="132"/>
-      <c r="H66" s="132"/>
-      <c r="I66" s="132"/>
-      <c r="J66" s="132"/>
-      <c r="K66" s="132"/>
-      <c r="L66" s="132"/>
-      <c r="M66" s="132"/>
-      <c r="N66" s="132"/>
-      <c r="O66" s="150"/>
-      <c r="P66" s="150"/>
-      <c r="Q66" s="150"/>
-      <c r="R66" s="132"/>
-      <c r="S66" s="126"/>
-      <c r="T66" s="126"/>
-      <c r="U66" s="126"/>
-      <c r="V66" s="126"/>
-      <c r="W66" s="126"/>
-      <c r="X66" s="126"/>
+      <c r="D66" s="141"/>
+      <c r="E66" s="142"/>
+      <c r="F66" s="145"/>
+      <c r="G66" s="145"/>
+      <c r="H66" s="145"/>
+      <c r="I66" s="145"/>
+      <c r="J66" s="145"/>
+      <c r="K66" s="145"/>
+      <c r="L66" s="145"/>
+      <c r="M66" s="145"/>
+      <c r="N66" s="145"/>
+      <c r="O66" s="146"/>
+      <c r="P66" s="146"/>
+      <c r="Q66" s="146"/>
+      <c r="R66" s="145"/>
+      <c r="S66" s="147"/>
+      <c r="T66" s="147"/>
+      <c r="U66" s="147"/>
+      <c r="V66" s="147"/>
+      <c r="W66" s="147"/>
+      <c r="X66" s="147"/>
       <c r="Y66" s="126"/>
-      <c r="Z66" s="10"/>
+      <c r="Z66" s="148"/>
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
@@ -11193,408 +10460,491 @@
       <c r="AK66" s="7"/>
       <c r="AN66"/>
     </row>
-    <row r="67" spans="2:40" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:40" s="6" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="115"/>
       <c r="C67" s="116"/>
-      <c r="D67" s="128" t="s">
-        <v>21</v>
-      </c>
-      <c r="E67" s="145"/>
-      <c r="F67" s="384"/>
-      <c r="G67" s="385"/>
-      <c r="H67" s="385"/>
-      <c r="I67" s="385"/>
-      <c r="J67" s="385"/>
-      <c r="K67" s="385"/>
-      <c r="L67" s="385"/>
-      <c r="M67" s="385"/>
-      <c r="N67" s="385"/>
-      <c r="O67" s="385"/>
-      <c r="P67" s="385"/>
-      <c r="Q67" s="385"/>
-      <c r="R67" s="385"/>
-      <c r="S67" s="385"/>
-      <c r="T67" s="385"/>
-      <c r="U67" s="385"/>
-      <c r="V67" s="385"/>
-      <c r="W67" s="385"/>
-      <c r="X67" s="386"/>
-      <c r="Y67" s="140"/>
-      <c r="Z67" s="141"/>
-      <c r="AC67" s="122"/>
-      <c r="AD67" s="122"/>
-    </row>
-    <row r="68" spans="2:40" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="115"/>
-      <c r="C68" s="116"/>
-      <c r="D68" s="143"/>
-      <c r="E68" s="143"/>
-      <c r="F68" s="146"/>
-      <c r="G68" s="146"/>
-      <c r="H68" s="146"/>
-      <c r="I68" s="146"/>
-      <c r="J68" s="146"/>
-      <c r="K68" s="146"/>
-      <c r="L68" s="146"/>
-      <c r="M68" s="146"/>
-      <c r="N68" s="146"/>
-      <c r="O68" s="154"/>
-      <c r="P68" s="154"/>
-      <c r="Q68" s="154"/>
-      <c r="R68" s="146"/>
-      <c r="S68" s="155"/>
-      <c r="T68" s="155"/>
-      <c r="U68" s="155"/>
-      <c r="V68" s="155"/>
-      <c r="W68" s="155"/>
-      <c r="X68" s="155"/>
-      <c r="Y68" s="148"/>
-      <c r="Z68" s="10"/>
-      <c r="AA68" s="3"/>
-      <c r="AB68" s="3"/>
-      <c r="AC68" s="3"/>
-      <c r="AD68" s="3"/>
-      <c r="AE68" s="3"/>
-      <c r="AF68" s="3"/>
-      <c r="AG68" s="4"/>
-      <c r="AH68" s="7"/>
-      <c r="AI68" s="7"/>
-      <c r="AJ68" s="7"/>
-      <c r="AK68" s="7"/>
-      <c r="AN68"/>
-    </row>
-    <row r="69" spans="2:40" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D67" s="370" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="142"/>
+      <c r="F67" s="403"/>
+      <c r="G67" s="404"/>
+      <c r="H67" s="404"/>
+      <c r="I67" s="404"/>
+      <c r="J67" s="404"/>
+      <c r="K67" s="404"/>
+      <c r="L67" s="404"/>
+      <c r="M67" s="404"/>
+      <c r="N67" s="404"/>
+      <c r="O67" s="404"/>
+      <c r="P67" s="404"/>
+      <c r="Q67" s="404"/>
+      <c r="R67" s="404"/>
+      <c r="S67" s="404"/>
+      <c r="T67" s="404"/>
+      <c r="U67" s="404"/>
+      <c r="V67" s="404"/>
+      <c r="W67" s="404"/>
+      <c r="X67" s="405"/>
+      <c r="Y67" s="126"/>
+      <c r="Z67" s="148"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="4"/>
+      <c r="AH67" s="7"/>
+      <c r="AI67" s="7"/>
+      <c r="AJ67" s="7"/>
+      <c r="AK67" s="7"/>
+      <c r="AN67"/>
+    </row>
+    <row r="68" spans="2:40" s="122" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="150"/>
+      <c r="C68" s="151"/>
+      <c r="D68" s="370"/>
+      <c r="E68" s="152"/>
+      <c r="F68" s="406"/>
+      <c r="G68" s="407"/>
+      <c r="H68" s="407"/>
+      <c r="I68" s="407"/>
+      <c r="J68" s="407"/>
+      <c r="K68" s="407"/>
+      <c r="L68" s="407"/>
+      <c r="M68" s="407"/>
+      <c r="N68" s="407"/>
+      <c r="O68" s="407"/>
+      <c r="P68" s="407"/>
+      <c r="Q68" s="407"/>
+      <c r="R68" s="407"/>
+      <c r="S68" s="407"/>
+      <c r="T68" s="407"/>
+      <c r="U68" s="407"/>
+      <c r="V68" s="407"/>
+      <c r="W68" s="407"/>
+      <c r="X68" s="408"/>
+      <c r="Y68" s="139"/>
+      <c r="Z68" s="148"/>
+    </row>
+    <row r="69" spans="2:40" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="115"/>
       <c r="C69" s="116"/>
-      <c r="D69" s="128" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69" s="116"/>
-      <c r="F69" s="387"/>
-      <c r="G69" s="388"/>
-      <c r="H69" s="388"/>
-      <c r="I69" s="389"/>
-      <c r="J69" s="182"/>
-      <c r="K69" s="123" t="s">
-        <v>19</v>
-      </c>
-      <c r="L69" s="390"/>
-      <c r="M69" s="391"/>
-      <c r="N69" s="391"/>
-      <c r="O69" s="391"/>
-      <c r="P69" s="391"/>
-      <c r="Q69" s="392"/>
-      <c r="R69" s="393" t="s">
-        <v>48</v>
-      </c>
-      <c r="S69" s="394"/>
-      <c r="T69" s="395"/>
-      <c r="U69" s="388"/>
-      <c r="V69" s="388"/>
-      <c r="W69" s="388"/>
-      <c r="X69" s="388"/>
-      <c r="Y69" s="389"/>
-      <c r="Z69" s="156"/>
-      <c r="AC69" s="122"/>
-      <c r="AD69" s="122"/>
-    </row>
-    <row r="70" spans="2:40" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D69" s="141"/>
+      <c r="E69" s="142"/>
+      <c r="F69" s="132"/>
+      <c r="G69" s="132"/>
+      <c r="H69" s="132"/>
+      <c r="I69" s="132"/>
+      <c r="J69" s="132"/>
+      <c r="K69" s="132"/>
+      <c r="L69" s="132"/>
+      <c r="M69" s="132"/>
+      <c r="N69" s="132"/>
+      <c r="O69" s="149"/>
+      <c r="P69" s="149"/>
+      <c r="Q69" s="149"/>
+      <c r="R69" s="132"/>
+      <c r="S69" s="126"/>
+      <c r="T69" s="126"/>
+      <c r="U69" s="126"/>
+      <c r="V69" s="126"/>
+      <c r="W69" s="126"/>
+      <c r="X69" s="126"/>
+      <c r="Y69" s="126"/>
+      <c r="Z69" s="10"/>
+      <c r="AA69" s="3"/>
+      <c r="AB69" s="3"/>
+      <c r="AC69" s="3"/>
+      <c r="AD69" s="3"/>
+      <c r="AE69" s="3"/>
+      <c r="AF69" s="3"/>
+      <c r="AG69" s="4"/>
+      <c r="AH69" s="7"/>
+      <c r="AI69" s="7"/>
+      <c r="AJ69" s="7"/>
+      <c r="AK69" s="7"/>
+      <c r="AN69"/>
+    </row>
+    <row r="70" spans="2:40" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="115"/>
       <c r="C70" s="116"/>
-      <c r="D70" s="116"/>
-      <c r="E70" s="116"/>
-      <c r="F70" s="152"/>
-      <c r="G70" s="152"/>
-      <c r="H70" s="152"/>
-      <c r="I70" s="152"/>
-      <c r="J70" s="152"/>
-      <c r="K70" s="116"/>
-      <c r="L70" s="157"/>
-      <c r="M70" s="157"/>
-      <c r="N70" s="157"/>
-      <c r="O70" s="157"/>
-      <c r="P70" s="157"/>
-      <c r="Q70" s="157"/>
-      <c r="R70" s="116"/>
-      <c r="S70" s="116"/>
-      <c r="T70" s="116"/>
-      <c r="U70" s="116"/>
-      <c r="V70" s="116"/>
-      <c r="W70" s="116"/>
-      <c r="X70" s="116"/>
-      <c r="Y70" s="116"/>
-      <c r="Z70" s="156"/>
+      <c r="D70" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="144"/>
+      <c r="F70" s="382"/>
+      <c r="G70" s="383"/>
+      <c r="H70" s="383"/>
+      <c r="I70" s="383"/>
+      <c r="J70" s="383"/>
+      <c r="K70" s="383"/>
+      <c r="L70" s="383"/>
+      <c r="M70" s="383"/>
+      <c r="N70" s="383"/>
+      <c r="O70" s="383"/>
+      <c r="P70" s="383"/>
+      <c r="Q70" s="383"/>
+      <c r="R70" s="383"/>
+      <c r="S70" s="383"/>
+      <c r="T70" s="383"/>
+      <c r="U70" s="383"/>
+      <c r="V70" s="383"/>
+      <c r="W70" s="383"/>
+      <c r="X70" s="384"/>
+      <c r="Y70" s="139"/>
+      <c r="Z70" s="140"/>
       <c r="AC70" s="122"/>
       <c r="AD70" s="122"/>
     </row>
-    <row r="71" spans="2:40" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="158"/>
-      <c r="C71" s="159"/>
-      <c r="D71" s="396" t="s">
-        <v>32</v>
-      </c>
-      <c r="E71" s="396"/>
-      <c r="F71" s="396"/>
-      <c r="G71" s="396"/>
-      <c r="H71" s="396"/>
-      <c r="I71" s="396"/>
-      <c r="J71" s="396"/>
-      <c r="K71" s="396"/>
-      <c r="L71" s="396"/>
-      <c r="M71" s="396"/>
-      <c r="N71" s="396"/>
-      <c r="O71" s="396"/>
-      <c r="P71" s="396"/>
-      <c r="Q71" s="396"/>
-      <c r="R71" s="396"/>
-      <c r="S71" s="396"/>
-      <c r="T71" s="396"/>
-      <c r="U71" s="396"/>
-      <c r="V71" s="396"/>
-      <c r="W71" s="396"/>
-      <c r="X71" s="396"/>
-      <c r="Y71" s="160"/>
-      <c r="Z71" s="161"/>
-      <c r="AC71" s="122"/>
-      <c r="AD71" s="122"/>
-    </row>
-    <row r="72" spans="2:40" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:40" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="115"/>
+      <c r="C71" s="116"/>
+      <c r="D71" s="142"/>
+      <c r="E71" s="142"/>
+      <c r="F71" s="145"/>
+      <c r="G71" s="145"/>
+      <c r="H71" s="145"/>
+      <c r="I71" s="145"/>
+      <c r="J71" s="145"/>
+      <c r="K71" s="145"/>
+      <c r="L71" s="145"/>
+      <c r="M71" s="145"/>
+      <c r="N71" s="145"/>
+      <c r="O71" s="153"/>
+      <c r="P71" s="153"/>
+      <c r="Q71" s="153"/>
+      <c r="R71" s="145"/>
+      <c r="S71" s="154"/>
+      <c r="T71" s="154"/>
+      <c r="U71" s="154"/>
+      <c r="V71" s="154"/>
+      <c r="W71" s="154"/>
+      <c r="X71" s="154"/>
+      <c r="Y71" s="147"/>
+      <c r="Z71" s="10"/>
+      <c r="AA71" s="3"/>
+      <c r="AB71" s="3"/>
+      <c r="AC71" s="3"/>
+      <c r="AD71" s="3"/>
+      <c r="AE71" s="3"/>
+      <c r="AF71" s="3"/>
+      <c r="AG71" s="4"/>
+      <c r="AH71" s="7"/>
+      <c r="AI71" s="7"/>
+      <c r="AJ71" s="7"/>
+      <c r="AK71" s="7"/>
+      <c r="AN71"/>
+    </row>
+    <row r="72" spans="2:40" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="115"/>
       <c r="C72" s="116"/>
-      <c r="D72" s="162"/>
-      <c r="E72" s="163"/>
-      <c r="F72" s="164"/>
-      <c r="G72" s="116"/>
-      <c r="H72" s="397"/>
-      <c r="I72" s="397"/>
-      <c r="J72" s="397"/>
-      <c r="K72" s="397"/>
-      <c r="L72" s="116"/>
-      <c r="M72" s="116"/>
-      <c r="N72" s="116"/>
-      <c r="O72" s="165"/>
-      <c r="P72" s="165"/>
-      <c r="Q72" s="165"/>
-      <c r="R72" s="116"/>
-      <c r="S72" s="397"/>
-      <c r="T72" s="397"/>
-      <c r="U72" s="397"/>
-      <c r="V72" s="164"/>
-      <c r="W72" s="164"/>
-      <c r="X72" s="159"/>
-      <c r="Y72" s="159"/>
-      <c r="Z72" s="166"/>
+      <c r="D72" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="116"/>
+      <c r="F72" s="385"/>
+      <c r="G72" s="386"/>
+      <c r="H72" s="386"/>
+      <c r="I72" s="387"/>
+      <c r="J72" s="181"/>
+      <c r="K72" s="123" t="s">
+        <v>19</v>
+      </c>
+      <c r="L72" s="388"/>
+      <c r="M72" s="389"/>
+      <c r="N72" s="389"/>
+      <c r="O72" s="389"/>
+      <c r="P72" s="389"/>
+      <c r="Q72" s="390"/>
+      <c r="R72" s="391" t="s">
+        <v>45</v>
+      </c>
+      <c r="S72" s="392"/>
+      <c r="T72" s="393"/>
+      <c r="U72" s="386"/>
+      <c r="V72" s="386"/>
+      <c r="W72" s="386"/>
+      <c r="X72" s="386"/>
+      <c r="Y72" s="387"/>
+      <c r="Z72" s="155"/>
       <c r="AC72" s="122"/>
       <c r="AD72" s="122"/>
     </row>
-    <row r="73" spans="2:40" s="6" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="167"/>
-      <c r="C73" s="168"/>
-      <c r="D73" s="169"/>
-      <c r="E73" s="169"/>
-      <c r="F73" s="169"/>
-      <c r="G73" s="169"/>
-      <c r="H73" s="170"/>
-      <c r="I73" s="169"/>
-      <c r="J73" s="169"/>
-      <c r="K73" s="169"/>
-      <c r="L73" s="169"/>
-      <c r="M73" s="169"/>
-      <c r="N73" s="169"/>
-      <c r="O73" s="169"/>
-      <c r="P73" s="169"/>
-      <c r="Q73" s="169"/>
-      <c r="R73" s="169"/>
-      <c r="S73" s="169"/>
-      <c r="T73" s="169"/>
-      <c r="U73" s="169"/>
-      <c r="V73" s="169"/>
-      <c r="W73" s="169"/>
-      <c r="X73" s="169"/>
-      <c r="Y73" s="169"/>
-      <c r="Z73" s="171"/>
+    <row r="73" spans="2:40" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="115"/>
+      <c r="C73" s="116"/>
+      <c r="D73" s="116"/>
+      <c r="E73" s="116"/>
+      <c r="F73" s="151"/>
+      <c r="G73" s="151"/>
+      <c r="H73" s="151"/>
+      <c r="I73" s="151"/>
+      <c r="J73" s="151"/>
+      <c r="K73" s="116"/>
+      <c r="L73" s="156"/>
+      <c r="M73" s="156"/>
+      <c r="N73" s="156"/>
+      <c r="O73" s="156"/>
+      <c r="P73" s="156"/>
+      <c r="Q73" s="156"/>
+      <c r="R73" s="116"/>
+      <c r="S73" s="116"/>
+      <c r="T73" s="116"/>
+      <c r="U73" s="116"/>
+      <c r="V73" s="116"/>
+      <c r="W73" s="116"/>
+      <c r="X73" s="116"/>
+      <c r="Y73" s="116"/>
+      <c r="Z73" s="155"/>
       <c r="AC73" s="122"/>
       <c r="AD73" s="122"/>
     </row>
-    <row r="74" spans="2:40" s="6" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74"/>
-      <c r="M74"/>
-      <c r="N74"/>
-      <c r="O74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
-      <c r="R74"/>
-      <c r="S74"/>
-      <c r="T74"/>
-      <c r="U74"/>
-      <c r="V74"/>
-      <c r="W74"/>
-      <c r="X74"/>
-      <c r="Y74"/>
-      <c r="Z74"/>
+    <row r="74" spans="2:40" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="157"/>
+      <c r="C74" s="158"/>
+      <c r="D74" s="394" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" s="394"/>
+      <c r="F74" s="394"/>
+      <c r="G74" s="394"/>
+      <c r="H74" s="394"/>
+      <c r="I74" s="394"/>
+      <c r="J74" s="394"/>
+      <c r="K74" s="394"/>
+      <c r="L74" s="394"/>
+      <c r="M74" s="394"/>
+      <c r="N74" s="394"/>
+      <c r="O74" s="394"/>
+      <c r="P74" s="394"/>
+      <c r="Q74" s="394"/>
+      <c r="R74" s="394"/>
+      <c r="S74" s="394"/>
+      <c r="T74" s="394"/>
+      <c r="U74" s="394"/>
+      <c r="V74" s="394"/>
+      <c r="W74" s="394"/>
+      <c r="X74" s="394"/>
+      <c r="Y74" s="159"/>
+      <c r="Z74" s="160"/>
       <c r="AC74" s="122"/>
       <c r="AD74" s="122"/>
     </row>
-    <row r="75" spans="2:40" s="172" customFormat="1" ht="57" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="410" t="s">
-        <v>142</v>
-      </c>
-      <c r="C75" s="411"/>
-      <c r="D75" s="411"/>
-      <c r="E75" s="411"/>
-      <c r="F75" s="411"/>
-      <c r="G75" s="380" t="s">
-        <v>144</v>
-      </c>
-      <c r="H75" s="380"/>
-      <c r="I75" s="412" t="s">
-        <v>49</v>
-      </c>
-      <c r="J75" s="411"/>
-      <c r="K75" s="411"/>
-      <c r="L75" s="380" t="s">
-        <v>143</v>
-      </c>
-      <c r="M75" s="380"/>
-      <c r="N75" s="380"/>
-      <c r="O75" s="380"/>
-      <c r="P75" s="412" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q75" s="411"/>
-      <c r="R75" s="411"/>
-      <c r="S75" s="411"/>
-      <c r="T75" s="380" t="s">
-        <v>50</v>
-      </c>
-      <c r="U75" s="380"/>
-      <c r="V75" s="380"/>
-      <c r="W75" s="380"/>
-      <c r="X75" s="380"/>
-      <c r="Y75" s="380"/>
-      <c r="Z75" s="381"/>
-      <c r="AB75" s="173"/>
-      <c r="AC75" s="173"/>
-      <c r="AF75" s="174"/>
-    </row>
-    <row r="76" spans="2:40" s="175" customFormat="1" ht="57" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="405" t="s">
-        <v>47</v>
-      </c>
-      <c r="C76" s="406"/>
-      <c r="D76" s="406"/>
-      <c r="E76" s="406"/>
-      <c r="F76" s="406"/>
-      <c r="G76" s="382"/>
-      <c r="H76" s="382"/>
-      <c r="I76" s="407" t="s">
-        <v>47</v>
-      </c>
-      <c r="J76" s="406"/>
-      <c r="K76" s="406"/>
-      <c r="L76" s="382"/>
-      <c r="M76" s="382"/>
-      <c r="N76" s="382"/>
-      <c r="O76" s="382"/>
-      <c r="P76" s="408" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q76" s="409"/>
-      <c r="R76" s="409"/>
-      <c r="S76" s="409"/>
-      <c r="T76" s="382"/>
-      <c r="U76" s="382"/>
-      <c r="V76" s="382"/>
-      <c r="W76" s="382"/>
-      <c r="X76" s="382"/>
-      <c r="Y76" s="382"/>
-      <c r="Z76" s="383"/>
-      <c r="AF76" s="176"/>
-      <c r="AG76" s="176"/>
-      <c r="AH76" s="177"/>
-    </row>
-    <row r="77" spans="2:40" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:40" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="115"/>
+      <c r="C75" s="116"/>
+      <c r="D75" s="161"/>
+      <c r="E75" s="162"/>
+      <c r="F75" s="163"/>
+      <c r="G75" s="116"/>
+      <c r="H75" s="395"/>
+      <c r="I75" s="395"/>
+      <c r="J75" s="395"/>
+      <c r="K75" s="395"/>
+      <c r="L75" s="116"/>
+      <c r="M75" s="116"/>
+      <c r="N75" s="116"/>
+      <c r="O75" s="164"/>
+      <c r="P75" s="164"/>
+      <c r="Q75" s="164"/>
+      <c r="R75" s="116"/>
+      <c r="S75" s="395"/>
+      <c r="T75" s="395"/>
+      <c r="U75" s="395"/>
+      <c r="V75" s="163"/>
+      <c r="W75" s="163"/>
+      <c r="X75" s="158"/>
+      <c r="Y75" s="158"/>
+      <c r="Z75" s="165"/>
+      <c r="AC75" s="122"/>
+      <c r="AD75" s="122"/>
+    </row>
+    <row r="76" spans="2:40" s="6" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="166"/>
+      <c r="C76" s="167"/>
+      <c r="D76" s="168"/>
+      <c r="E76" s="168"/>
+      <c r="F76" s="168"/>
+      <c r="G76" s="168"/>
+      <c r="H76" s="169"/>
+      <c r="I76" s="168"/>
+      <c r="J76" s="168"/>
+      <c r="K76" s="168"/>
+      <c r="L76" s="168"/>
+      <c r="M76" s="168"/>
+      <c r="N76" s="168"/>
+      <c r="O76" s="168"/>
+      <c r="P76" s="168"/>
+      <c r="Q76" s="168"/>
+      <c r="R76" s="168"/>
+      <c r="S76" s="168"/>
+      <c r="T76" s="168"/>
+      <c r="U76" s="168"/>
+      <c r="V76" s="168"/>
+      <c r="W76" s="168"/>
+      <c r="X76" s="168"/>
+      <c r="Y76" s="168"/>
+      <c r="Z76" s="170"/>
+      <c r="AC76" s="122"/>
+      <c r="AD76" s="122"/>
+    </row>
+    <row r="77" spans="2:40" s="6" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
       <c r="AC77" s="122"/>
       <c r="AD77" s="122"/>
-      <c r="AF77" s="178"/>
-      <c r="AG77" s="178"/>
-      <c r="AH77" s="178"/>
-      <c r="AI77" s="179"/>
-    </row>
-    <row r="78" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF78" s="38"/>
-      <c r="AG78" s="38"/>
-      <c r="AH78" s="38"/>
-      <c r="AI78" s="39"/>
-    </row>
-    <row r="79" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF79" s="38"/>
-      <c r="AG79" s="38"/>
-      <c r="AH79" s="38"/>
-      <c r="AI79" s="39"/>
-    </row>
-    <row r="80" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AG80" s="38"/>
-      <c r="AH80" s="38"/>
-      <c r="AI80" s="39"/>
-    </row>
-    <row r="81" spans="9:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="2:40" s="171" customFormat="1" ht="57" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="414" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="415"/>
+      <c r="D78" s="415"/>
+      <c r="E78" s="415"/>
+      <c r="F78" s="415"/>
+      <c r="G78" s="378" t="s">
+        <v>141</v>
+      </c>
+      <c r="H78" s="378"/>
+      <c r="I78" s="416" t="s">
+        <v>46</v>
+      </c>
+      <c r="J78" s="415"/>
+      <c r="K78" s="415"/>
+      <c r="L78" s="378" t="s">
+        <v>140</v>
+      </c>
+      <c r="M78" s="378"/>
+      <c r="N78" s="378"/>
+      <c r="O78" s="378"/>
+      <c r="P78" s="416" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q78" s="415"/>
+      <c r="R78" s="415"/>
+      <c r="S78" s="415"/>
+      <c r="T78" s="378" t="s">
+        <v>47</v>
+      </c>
+      <c r="U78" s="378"/>
+      <c r="V78" s="378"/>
+      <c r="W78" s="378"/>
+      <c r="X78" s="378"/>
+      <c r="Y78" s="378"/>
+      <c r="Z78" s="379"/>
+      <c r="AB78" s="172"/>
+      <c r="AC78" s="172"/>
+      <c r="AF78" s="173"/>
+    </row>
+    <row r="79" spans="2:40" s="174" customFormat="1" ht="57" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="409" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" s="410"/>
+      <c r="D79" s="410"/>
+      <c r="E79" s="410"/>
+      <c r="F79" s="410"/>
+      <c r="G79" s="380"/>
+      <c r="H79" s="380"/>
+      <c r="I79" s="411" t="s">
+        <v>44</v>
+      </c>
+      <c r="J79" s="410"/>
+      <c r="K79" s="410"/>
+      <c r="L79" s="380"/>
+      <c r="M79" s="380"/>
+      <c r="N79" s="380"/>
+      <c r="O79" s="380"/>
+      <c r="P79" s="412" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q79" s="413"/>
+      <c r="R79" s="413"/>
+      <c r="S79" s="413"/>
+      <c r="T79" s="380"/>
+      <c r="U79" s="380"/>
+      <c r="V79" s="380"/>
+      <c r="W79" s="380"/>
+      <c r="X79" s="380"/>
+      <c r="Y79" s="380"/>
+      <c r="Z79" s="381"/>
+      <c r="AF79" s="175"/>
+      <c r="AG79" s="175"/>
+      <c r="AH79" s="176"/>
+    </row>
+    <row r="80" spans="2:40" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC80" s="122"/>
+      <c r="AD80" s="122"/>
+      <c r="AF80" s="177"/>
+      <c r="AG80" s="177"/>
+      <c r="AH80" s="177"/>
+      <c r="AI80" s="178"/>
+    </row>
+    <row r="81" spans="9:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AF81" s="38"/>
-    </row>
-    <row r="82" spans="9:33" x14ac:dyDescent="0.2">
+      <c r="AG81" s="38"/>
+      <c r="AH81" s="38"/>
+      <c r="AI81" s="39"/>
+    </row>
+    <row r="82" spans="9:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF82" s="38"/>
       <c r="AG82" s="38"/>
-    </row>
-    <row r="83" spans="9:33" x14ac:dyDescent="0.2">
-      <c r="AF83" s="38"/>
-    </row>
-    <row r="84" spans="9:33" x14ac:dyDescent="0.2">
-      <c r="AG84" s="38"/>
-    </row>
-    <row r="85" spans="9:33" x14ac:dyDescent="0.2">
-      <c r="AF85" s="38"/>
-    </row>
-    <row r="86" spans="9:33" x14ac:dyDescent="0.2">
-      <c r="AG86" s="38"/>
-    </row>
-    <row r="87" spans="9:33" x14ac:dyDescent="0.2">
-      <c r="AF87" s="38"/>
-    </row>
-    <row r="88" spans="9:33" x14ac:dyDescent="0.2">
-      <c r="AG88" s="38"/>
-    </row>
-    <row r="90" spans="9:33" x14ac:dyDescent="0.2">
-      <c r="I90" s="38"/>
-      <c r="J90" s="38"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="38"/>
-      <c r="M90" s="38"/>
-      <c r="N90" s="37"/>
-    </row>
-    <row r="91" spans="9:33" x14ac:dyDescent="0.2">
-      <c r="I91" s="38"/>
-      <c r="J91" s="38"/>
-      <c r="K91" s="38"/>
-      <c r="L91" s="38"/>
-      <c r="M91" s="38"/>
-      <c r="N91" s="37"/>
-    </row>
-    <row r="92" spans="9:33" x14ac:dyDescent="0.2">
-      <c r="I92" s="38"/>
-      <c r="J92" s="38"/>
-      <c r="K92" s="38"/>
-      <c r="L92" s="38"/>
-      <c r="M92" s="38"/>
-      <c r="N92" s="37"/>
-    </row>
-    <row r="93" spans="9:33" x14ac:dyDescent="0.2">
+      <c r="AH82" s="38"/>
+      <c r="AI82" s="39"/>
+    </row>
+    <row r="83" spans="9:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG83" s="38"/>
+      <c r="AH83" s="38"/>
+      <c r="AI83" s="39"/>
+    </row>
+    <row r="84" spans="9:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF84" s="38"/>
+    </row>
+    <row r="85" spans="9:35" x14ac:dyDescent="0.25">
+      <c r="AG85" s="38"/>
+    </row>
+    <row r="86" spans="9:35" x14ac:dyDescent="0.25">
+      <c r="AF86" s="38"/>
+    </row>
+    <row r="87" spans="9:35" x14ac:dyDescent="0.25">
+      <c r="AG87" s="38"/>
+    </row>
+    <row r="88" spans="9:35" x14ac:dyDescent="0.25">
+      <c r="AF88" s="38"/>
+    </row>
+    <row r="89" spans="9:35" x14ac:dyDescent="0.25">
+      <c r="AG89" s="38"/>
+    </row>
+    <row r="90" spans="9:35" x14ac:dyDescent="0.25">
+      <c r="AF90" s="38"/>
+    </row>
+    <row r="91" spans="9:35" x14ac:dyDescent="0.25">
+      <c r="AG91" s="38"/>
+    </row>
+    <row r="93" spans="9:35" x14ac:dyDescent="0.25">
       <c r="I93" s="38"/>
       <c r="J93" s="38"/>
       <c r="K93" s="38"/>
@@ -11602,7 +10952,7 @@
       <c r="M93" s="38"/>
       <c r="N93" s="37"/>
     </row>
-    <row r="94" spans="9:33" x14ac:dyDescent="0.2">
+    <row r="94" spans="9:35" x14ac:dyDescent="0.25">
       <c r="I94" s="38"/>
       <c r="J94" s="38"/>
       <c r="K94" s="38"/>
@@ -11610,53 +10960,77 @@
       <c r="M94" s="38"/>
       <c r="N94" s="37"/>
     </row>
+    <row r="95" spans="9:35" x14ac:dyDescent="0.25">
+      <c r="I95" s="38"/>
+      <c r="J95" s="38"/>
+      <c r="K95" s="38"/>
+      <c r="L95" s="38"/>
+      <c r="M95" s="38"/>
+      <c r="N95" s="37"/>
+    </row>
+    <row r="96" spans="9:35" x14ac:dyDescent="0.25">
+      <c r="I96" s="38"/>
+      <c r="J96" s="38"/>
+      <c r="K96" s="38"/>
+      <c r="L96" s="38"/>
+      <c r="M96" s="38"/>
+      <c r="N96" s="37"/>
+    </row>
+    <row r="97" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I97" s="38"/>
+      <c r="J97" s="38"/>
+      <c r="K97" s="38"/>
+      <c r="L97" s="38"/>
+      <c r="M97" s="38"/>
+      <c r="N97" s="37"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0"/>
   <dataConsolidate function="max"/>
   <mergeCells count="211">
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="P76:S76"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:K75"/>
-    <mergeCell ref="L75:O75"/>
-    <mergeCell ref="P75:S75"/>
-    <mergeCell ref="T75:Z75"/>
-    <mergeCell ref="T76:Z76"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="P79:S79"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="P78:S78"/>
+    <mergeCell ref="T78:Z78"/>
+    <mergeCell ref="T79:Z79"/>
     <mergeCell ref="U33:X33"/>
-    <mergeCell ref="F67:X67"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="L69:Q69"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="T69:Y69"/>
-    <mergeCell ref="D71:X71"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="S72:U72"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="O54:R54"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="U54:X54"/>
-    <mergeCell ref="F62:X62"/>
-    <mergeCell ref="F56:X57"/>
-    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="F70:X70"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="L72:Q72"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="T72:Y72"/>
+    <mergeCell ref="D74:X74"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="S75:U75"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="O57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="U57:X57"/>
+    <mergeCell ref="F65:X65"/>
     <mergeCell ref="F59:X60"/>
     <mergeCell ref="D59:D60"/>
-    <mergeCell ref="F64:X65"/>
-    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="F62:X63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="F67:X68"/>
+    <mergeCell ref="D67:D68"/>
     <mergeCell ref="D48:F48"/>
     <mergeCell ref="G48:H48"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="L49:N49"/>
     <mergeCell ref="Q49:R49"/>
     <mergeCell ref="S50:X50"/>
-    <mergeCell ref="H51:H52"/>
     <mergeCell ref="L51:N52"/>
-    <mergeCell ref="O51:X52"/>
+    <mergeCell ref="O51:X54"/>
+    <mergeCell ref="D51:I51"/>
     <mergeCell ref="U39:X39"/>
     <mergeCell ref="D46:F46"/>
     <mergeCell ref="G46:H46"/>
@@ -11937,7 +11311,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U41:W41 O41:P41 L41:M41 G41 I41:J41 R41:S41" xr:uid="{04711F6A-19B7-47DB-A6DF-73164AD1927D}">
       <formula1>"FOB,CIF"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cálculo automático da classe" prompt="ALTO RISCO: 19 a 22_x000a_MÉDIO RISCO: 16 a 18_x000a_BAIXO RISCO: 1 a 15" sqref="X66 Z66:Z67" xr:uid="{C94A5D02-1274-41FC-BA01-F097BBF27040}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Cálculo automático da classe" prompt="ALTO RISCO: 19 a 22_x000a_MÉDIO RISCO: 16 a 18_x000a_BAIXO RISCO: 1 a 15" sqref="X69 Z69:Z70" xr:uid="{C94A5D02-1274-41FC-BA01-F097BBF27040}"/>
     <dataValidation type="date" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Atenção" error="Digite a data correta" sqref="G47:H47" xr:uid="{D6CDDFF0-3EBC-431A-9D5A-437D0CB08DD0}">
       <formula1>29221</formula1>
     </dataValidation>
@@ -11945,7 +11319,7 @@
       <formula1>32874</formula1>
     </dataValidation>
     <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Atenção" error="Digite a data correta" sqref="O50:R50 G49:G50 O49:P49" xr:uid="{CEC2C4A4-5296-47E9-B28B-3051C91E5843}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K54" xr:uid="{05002A5A-C32E-4666-A685-8B9DEDE75BDA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K57 F52:F54" xr:uid="{05002A5A-C32E-4666-A685-8B9DEDE75BDA}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10:P10" xr:uid="{DB4592D2-CC71-4E84-95C6-521E31271839}">
@@ -11971,15 +11345,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11993,15 +11367,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12015,15 +11389,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12037,15 +11411,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12059,7 +11433,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -12067,7 +11441,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12081,7 +11455,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -12089,7 +11463,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12103,15 +11477,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12125,15 +11499,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12147,15 +11521,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12169,15 +11543,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12191,15 +11565,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12213,15 +11587,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12235,15 +11609,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12257,15 +11631,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12279,15 +11653,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>15</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>16</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12301,15 +11675,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>15</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>16</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12323,15 +11697,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>20</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>20</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12345,15 +11719,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>20</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>20</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12367,15 +11741,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>21</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>21</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12389,15 +11763,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>21</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>21</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12411,15 +11785,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12433,15 +11807,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12455,15 +11829,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12477,15 +11851,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12499,15 +11873,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12521,15 +11895,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12543,15 +11917,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12565,15 +11939,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12587,15 +11961,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12609,15 +11983,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12631,15 +12005,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12653,15 +12027,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12675,15 +12049,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12697,15 +12071,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12719,15 +12093,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>15</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>16</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12741,15 +12115,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>15</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>16</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12763,15 +12137,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>20</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>20</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12785,15 +12159,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>20</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>20</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12807,15 +12181,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>21</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>21</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12829,15 +12203,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>21</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>21</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>209550</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12851,13 +12225,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </to>
@@ -12873,13 +12247,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </to>
@@ -12895,13 +12269,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </to>
@@ -12917,13 +12291,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </to>
@@ -12939,13 +12313,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </to>
@@ -12961,13 +12335,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </to>
@@ -12983,13 +12357,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </to>
@@ -13005,13 +12379,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>640080</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </to>
@@ -13039,6 +12413,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31981749-9514-4BFC-A4A9-5F608198E55E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED745070-A753-469B-8A4D-318A844BA2C1}">
   <dimension ref="A1:C58"/>
   <sheetViews>
@@ -13046,644 +12432,644 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="48" t="s">
+      <c r="C13" s="49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="49" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+      <c r="B33" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
+      <c r="B40" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B49" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="49" t="s">
+      <c r="B57" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="49" t="s">
+      <c r="C57" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B58" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="B40" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="B46" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="B54" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" s="49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" s="49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="B58" s="49" t="s">
-        <v>81</v>
-      </c>
       <c r="C58" s="49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -13691,7 +13077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6775CA0F-3240-4ECB-B931-2EB312E45FEA}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -13699,22 +13085,22 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="112" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="112" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="112"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="112" t="s">
         <v>0</v>
       </c>
@@ -13725,26 +13111,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c74dd2d8-fe1d-4e8f-adce-cff836dce0e3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="368e3f79-3df1-49f7-ac2b-b6e27fdb3111">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010050F9A430EE4B6F4D98ED68BBDF815500" ma:contentTypeVersion="10" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="e8d07897be29ab7ca5cfc03bb203adf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="368e3f79-3df1-49f7-ac2b-b6e27fdb3111" xmlns:ns3="c74dd2d8-fe1d-4e8f-adce-cff836dce0e3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1766299a771133d688346fb05cb025d3" ns2:_="" ns3:_="">
     <xsd:import namespace="368e3f79-3df1-49f7-ac2b-b6e27fdb3111"/>
@@ -13949,7 +13315,46 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c74dd2d8-fe1d-4e8f-adce-cff836dce0e3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="368e3f79-3df1-49f7-ac2b-b6e27fdb3111">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEE5283A-DFFF-44AA-8A37-BAD620C8E4AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="368e3f79-3df1-49f7-ac2b-b6e27fdb3111"/>
+    <ds:schemaRef ds:uri="c74dd2d8-fe1d-4e8f-adce-cff836dce0e3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62799B42-972D-4961-B3E3-E821F379B48B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -13967,29 +13372,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D945AD9-DFE0-4C0A-947E-9E487CB64655}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEE5283A-DFFF-44AA-8A37-BAD620C8E4AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="368e3f79-3df1-49f7-ac2b-b6e27fdb3111"/>
-    <ds:schemaRef ds:uri="c74dd2d8-fe1d-4e8f-adce-cff836dce0e3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>